--- a/Data/old/DWA_JH.xlsx
+++ b/Data/old/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F354C5-DFB7-4323-859E-8779565A4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA9DEB-707B-4FE8-99C3-51EDC3BF95A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2950" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-6990" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -6104,9 +6104,6 @@
     <t>III_8_0032</t>
   </si>
   <si>
-    <t>Waldowisheim</t>
-  </si>
-  <si>
     <t>i-m</t>
   </si>
   <si>
@@ -8586,6 +8583,9 @@
   </si>
   <si>
     <t>170. Tasse (unklar)</t>
+  </si>
+  <si>
+    <t>Waldolwisheim</t>
   </si>
 </sst>
 </file>
@@ -9024,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="H94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9155,7 +9155,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>28</v>
@@ -9200,7 +9200,7 @@
         <v>41</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>787</v>
@@ -19183,7 +19183,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="H68" t="s">
         <v>326</v>
@@ -19195,22 +19195,22 @@
         <v>48.45</v>
       </c>
       <c r="K68" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="L68" s="16" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N68" t="s">
         <v>2428</v>
-      </c>
-      <c r="N68" t="s">
-        <v>2429</v>
       </c>
       <c r="O68" t="s">
         <v>379</v>
       </c>
       <c r="P68" t="s">
+        <v>2450</v>
+      </c>
+      <c r="Q68" t="s">
         <v>2451</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>2452</v>
       </c>
       <c r="R68" t="s">
         <v>1313</v>
@@ -19222,49 +19222,49 @@
         <v>89</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="V68" t="s">
+        <v>2430</v>
+      </c>
+      <c r="W68" t="s">
         <v>2431</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>2432</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>2433</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>2434</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>2435</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>2436</v>
       </c>
       <c r="AB68" t="s">
         <v>738</v>
       </c>
       <c r="AC68" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="AD68" t="s">
         <v>536</v>
       </c>
       <c r="AE68" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="AF68" t="s">
         <v>1382</v>
       </c>
       <c r="AG68" s="14" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="AH68" s="14" t="s">
         <v>458</v>
       </c>
       <c r="AI68" s="14" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="AJ68" s="14" t="s">
         <v>561</v>
@@ -19273,31 +19273,31 @@
         <v>947</v>
       </c>
       <c r="AL68" s="14" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AM68" s="14" t="s">
         <v>2441</v>
       </c>
-      <c r="AM68" s="14" t="s">
+      <c r="AN68" s="14" t="s">
         <v>2442</v>
       </c>
-      <c r="AN68" s="14" t="s">
+      <c r="AO68" s="14" t="s">
         <v>2443</v>
       </c>
-      <c r="AO68" s="14" t="s">
+      <c r="AP68" s="14" t="s">
         <v>2444</v>
       </c>
-      <c r="AP68" s="14" t="s">
+      <c r="AQ68" s="14" t="s">
         <v>2445</v>
-      </c>
-      <c r="AQ68" s="14" t="s">
-        <v>2446</v>
       </c>
       <c r="AR68" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS68" s="14" t="s">
+        <v>2446</v>
+      </c>
+      <c r="AT68" s="14" t="s">
         <v>2447</v>
-      </c>
-      <c r="AT68" s="14" t="s">
-        <v>2448</v>
       </c>
       <c r="AU68" s="14" t="s">
         <v>547</v>
@@ -19307,10 +19307,10 @@
         <v>1188</v>
       </c>
       <c r="AY68" s="14" t="s">
+        <v>2448</v>
+      </c>
+      <c r="AZ68" s="14" t="s">
         <v>2449</v>
-      </c>
-      <c r="AZ68" s="14" t="s">
-        <v>2450</v>
       </c>
       <c r="BA68" s="1" t="s">
         <v>1394</v>
@@ -20569,7 +20569,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="H77" t="s">
         <v>326</v>
@@ -20581,10 +20581,10 @@
         <v>840</v>
       </c>
       <c r="K77" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="N77" t="s">
         <v>1634</v>
@@ -20593,10 +20593,10 @@
         <v>233</v>
       </c>
       <c r="P77" t="s">
+        <v>2463</v>
+      </c>
+      <c r="Q77" t="s">
         <v>2464</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>2465</v>
       </c>
       <c r="R77">
         <v>999</v>
@@ -20644,28 +20644,28 @@
         <v>999</v>
       </c>
       <c r="AG77" s="14" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AH77" s="14">
         <v>999</v>
       </c>
       <c r="AI77" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ77" s="14" t="s">
         <v>339</v>
       </c>
       <c r="AK77" s="14" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AL77" s="14">
+        <v>999</v>
+      </c>
+      <c r="AM77" s="14" t="s">
+        <v>2467</v>
+      </c>
+      <c r="AN77" s="14" t="s">
         <v>2459</v>
-      </c>
-      <c r="AL77" s="14">
-        <v>999</v>
-      </c>
-      <c r="AM77" s="14" t="s">
-        <v>2468</v>
-      </c>
-      <c r="AN77" s="14" t="s">
-        <v>2460</v>
       </c>
       <c r="AO77" s="14" t="s">
         <v>1557</v>
@@ -20674,7 +20674,7 @@
         <v>999</v>
       </c>
       <c r="AQ77" s="14" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="AR77" s="14" t="s">
         <v>347</v>
@@ -20690,16 +20690,16 @@
       </c>
       <c r="AV77" s="14"/>
       <c r="AW77" s="14" t="s">
+        <v>2460</v>
+      </c>
+      <c r="AX77" s="14" t="s">
         <v>2461</v>
-      </c>
-      <c r="AX77" s="14" t="s">
-        <v>2462</v>
       </c>
       <c r="AY77" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AZ77" s="14" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BA77" s="1" t="s">
         <v>612</v>
@@ -20725,7 +20725,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="H78" t="s">
         <v>326</v>
@@ -20737,10 +20737,10 @@
         <v>840</v>
       </c>
       <c r="K78" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="N78" t="s">
         <v>1634</v>
@@ -20749,10 +20749,10 @@
         <v>233</v>
       </c>
       <c r="P78" t="s">
+        <v>2463</v>
+      </c>
+      <c r="Q78" t="s">
         <v>2464</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>2465</v>
       </c>
       <c r="R78">
         <v>999</v>
@@ -20791,37 +20791,37 @@
         <v>999</v>
       </c>
       <c r="AD78" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AE78">
+        <v>999</v>
+      </c>
+      <c r="AF78">
+        <v>999</v>
+      </c>
+      <c r="AG78" t="s">
         <v>2466</v>
       </c>
-      <c r="AE78">
-        <v>999</v>
-      </c>
-      <c r="AF78">
-        <v>999</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>2467</v>
-      </c>
       <c r="AH78" s="14">
         <v>999</v>
       </c>
       <c r="AI78" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ78" s="14" t="s">
         <v>339</v>
       </c>
       <c r="AK78" s="14" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AL78" s="14">
+        <v>999</v>
+      </c>
+      <c r="AM78" s="14" t="s">
+        <v>2467</v>
+      </c>
+      <c r="AN78" s="14" t="s">
         <v>2459</v>
-      </c>
-      <c r="AL78" s="14">
-        <v>999</v>
-      </c>
-      <c r="AM78" s="14" t="s">
-        <v>2468</v>
-      </c>
-      <c r="AN78" s="14" t="s">
-        <v>2460</v>
       </c>
       <c r="AO78" s="14" t="s">
         <v>1557</v>
@@ -20830,7 +20830,7 @@
         <v>999</v>
       </c>
       <c r="AQ78" s="14" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="AR78" s="14" t="s">
         <v>347</v>
@@ -20855,7 +20855,7 @@
         <v>349</v>
       </c>
       <c r="AZ78" s="14" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BA78" s="1" t="s">
         <v>612</v>
@@ -21652,7 +21652,7 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="H84" t="s">
         <v>326</v>
@@ -21664,7 +21664,7 @@
         <v>48.35</v>
       </c>
       <c r="K84" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>1835</v>
@@ -21676,10 +21676,10 @@
         <v>379</v>
       </c>
       <c r="P84" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="Q84" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="R84">
         <v>999</v>
@@ -21691,7 +21691,7 @@
         <v>1056</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="V84" t="s">
         <v>330</v>
@@ -21706,10 +21706,10 @@
         <v>333</v>
       </c>
       <c r="Z84" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AA84" t="s">
         <v>2472</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>2473</v>
       </c>
       <c r="AB84" t="s">
         <v>738</v>
@@ -21721,28 +21721,28 @@
         <v>1758</v>
       </c>
       <c r="AE84" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="AF84" t="s">
         <v>1382</v>
       </c>
       <c r="AG84" s="14" t="s">
+        <v>2474</v>
+      </c>
+      <c r="AH84" s="14" t="s">
         <v>2475</v>
       </c>
-      <c r="AH84" s="14" t="s">
+      <c r="AI84" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="AI84" s="14" t="s">
+      <c r="AJ84" s="14" t="s">
         <v>2477</v>
-      </c>
-      <c r="AJ84" s="14" t="s">
-        <v>2478</v>
       </c>
       <c r="AK84" s="14" t="s">
         <v>1591</v>
       </c>
       <c r="AL84" s="14" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="AM84" s="14" t="s">
         <v>1764</v>
@@ -21757,7 +21757,7 @@
         <v>435</v>
       </c>
       <c r="AQ84" s="14" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="AR84" s="14" t="s">
         <v>347</v>
@@ -21766,7 +21766,7 @@
         <v>437</v>
       </c>
       <c r="AT84" s="14" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="AU84" s="14" t="s">
         <v>79</v>
@@ -21779,7 +21779,7 @@
         <v>492</v>
       </c>
       <c r="AZ84" s="14" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BA84" s="1" t="s">
         <v>612</v>
@@ -22440,10 +22440,10 @@
         <v>48.4</v>
       </c>
       <c r="K90" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L90" t="s">
-        <v>1950</v>
+        <v>2777</v>
       </c>
       <c r="N90" t="s">
         <v>1903</v>
@@ -22452,7 +22452,7 @@
         <v>1881</v>
       </c>
       <c r="P90" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q90" t="s">
         <v>1191</v>
@@ -22470,22 +22470,22 @@
         <v>999</v>
       </c>
       <c r="V90" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W90" t="s">
         <v>1952</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>1953</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>1954</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>1955</v>
       </c>
       <c r="Z90" t="s">
         <v>171</v>
       </c>
       <c r="AA90" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="AB90" t="s">
         <v>1863</v>
@@ -22494,25 +22494,25 @@
         <v>602</v>
       </c>
       <c r="AD90" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AE90" t="s">
         <v>1957</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>1958</v>
       </c>
       <c r="AF90" t="s">
         <v>1866</v>
       </c>
       <c r="AG90" s="14" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AH90" s="14" t="s">
         <v>625</v>
       </c>
       <c r="AI90" s="14" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AJ90" s="14" t="s">
         <v>1960</v>
-      </c>
-      <c r="AJ90" s="14" t="s">
-        <v>1961</v>
       </c>
       <c r="AK90" s="14" t="s">
         <v>1723</v>
@@ -22521,25 +22521,25 @@
         <v>999</v>
       </c>
       <c r="AM90" s="14" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AN90" s="14" t="s">
         <v>1940</v>
       </c>
       <c r="AO90" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AP90" s="14" t="s">
         <v>1963</v>
       </c>
-      <c r="AP90" s="14" t="s">
+      <c r="AQ90" s="14" t="s">
         <v>1964</v>
-      </c>
-      <c r="AQ90" s="14" t="s">
-        <v>1965</v>
       </c>
       <c r="AR90" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS90" s="14" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AT90" s="14" t="s">
         <v>78</v>
@@ -22549,13 +22549,13 @@
       </c>
       <c r="AV90" s="14"/>
       <c r="AW90" s="14" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AY90" s="14" t="s">
         <v>635</v>
       </c>
       <c r="AZ90" s="14" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BA90" s="1" t="s">
         <v>1790</v>
@@ -22581,7 +22581,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>1855</v>
@@ -22593,10 +22593,10 @@
         <v>48.4</v>
       </c>
       <c r="K91" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="L91" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="N91" t="s">
         <v>1903</v>
@@ -22605,10 +22605,10 @@
         <v>1881</v>
       </c>
       <c r="P91" t="s">
+        <v>1991</v>
+      </c>
+      <c r="Q91" t="s">
         <v>1992</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>1993</v>
       </c>
       <c r="R91">
         <v>999</v>
@@ -22620,28 +22620,28 @@
         <v>89</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="V91" t="s">
+        <v>1972</v>
+      </c>
+      <c r="W91" t="s">
         <v>1973</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>1974</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>1975</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>1976</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>1977</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AB91" t="s">
         <v>1978</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>1979</v>
       </c>
       <c r="AC91" t="s">
         <v>478</v>
@@ -22656,53 +22656,53 @@
         <v>1915</v>
       </c>
       <c r="AG91" s="14" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="AH91" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI91" s="14" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AJ91" s="14" t="s">
         <v>1981</v>
       </c>
-      <c r="AJ91" s="14" t="s">
+      <c r="AK91" s="14" t="s">
         <v>1982</v>
       </c>
-      <c r="AK91" s="14" t="s">
+      <c r="AL91" s="14" t="s">
         <v>1983</v>
-      </c>
-      <c r="AL91" s="14" t="s">
-        <v>1984</v>
       </c>
       <c r="AM91" s="14" t="s">
         <v>462</v>
       </c>
       <c r="AN91" s="14" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AO91" s="14" t="s">
         <v>1985</v>
       </c>
-      <c r="AO91" s="14" t="s">
+      <c r="AP91" s="14" t="s">
         <v>1986</v>
       </c>
-      <c r="AP91" s="14" t="s">
+      <c r="AQ91" s="14" t="s">
         <v>1987</v>
-      </c>
-      <c r="AQ91" s="14" t="s">
-        <v>1988</v>
       </c>
       <c r="AR91" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS91" s="14" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AT91" s="14" t="s">
         <v>1989</v>
-      </c>
-      <c r="AT91" s="14" t="s">
-        <v>1990</v>
       </c>
       <c r="AU91" s="14" t="s">
         <v>547</v>
       </c>
       <c r="AV91" s="14"/>
       <c r="AW91" s="14" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="AY91" s="14" t="s">
         <v>349</v>
@@ -22734,7 +22734,7 @@
         <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H92" t="s">
         <v>1855</v>
@@ -22746,10 +22746,10 @@
         <v>48.4</v>
       </c>
       <c r="K92" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="L92" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N92" t="s">
         <v>1903</v>
@@ -22758,10 +22758,10 @@
         <v>1881</v>
       </c>
       <c r="P92" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Q92" t="s">
         <v>2019</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>2020</v>
       </c>
       <c r="R92">
         <v>999</v>
@@ -22773,25 +22773,25 @@
         <v>306</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="V92">
         <v>999</v>
       </c>
       <c r="W92" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X92" t="s">
         <v>1998</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Z92" t="s">
         <v>1999</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="AA92" t="s">
         <v>2001</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>2000</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>2002</v>
       </c>
       <c r="AB92">
         <v>999</v>
@@ -22800,76 +22800,76 @@
         <v>478</v>
       </c>
       <c r="AD92" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AE92" t="s">
         <v>2003</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AF92">
+        <v>999</v>
+      </c>
+      <c r="AG92" s="14" t="s">
         <v>2004</v>
-      </c>
-      <c r="AF92">
-        <v>999</v>
-      </c>
-      <c r="AG92" s="14" t="s">
-        <v>2005</v>
       </c>
       <c r="AH92" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI92" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AJ92" s="14" t="s">
         <v>2006</v>
       </c>
-      <c r="AJ92" s="14" t="s">
+      <c r="AK92" s="14" t="s">
         <v>2007</v>
       </c>
-      <c r="AK92" s="14" t="s">
+      <c r="AL92" s="14" t="s">
         <v>2008</v>
       </c>
-      <c r="AL92" s="14" t="s">
+      <c r="AM92" s="14" t="s">
         <v>2009</v>
-      </c>
-      <c r="AM92" s="14" t="s">
-        <v>2010</v>
       </c>
       <c r="AN92" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="AO92" s="14" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AP92" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AQ92" s="14" t="s">
         <v>2011</v>
-      </c>
-      <c r="AP92" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="AQ92" s="14" t="s">
-        <v>2012</v>
       </c>
       <c r="AR92" t="s">
         <v>347</v>
       </c>
       <c r="AS92" s="14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AT92" s="14" t="s">
         <v>2013</v>
       </c>
-      <c r="AT92" s="14" t="s">
+      <c r="AU92">
+        <v>999</v>
+      </c>
+      <c r="AW92" s="14" t="s">
         <v>2014</v>
       </c>
-      <c r="AU92">
-        <v>999</v>
-      </c>
-      <c r="AW92" s="14" t="s">
+      <c r="AX92" s="14" t="s">
         <v>2015</v>
       </c>
-      <c r="AX92" s="14" t="s">
+      <c r="AY92" s="14" t="s">
         <v>2016</v>
       </c>
-      <c r="AY92" s="14" t="s">
+      <c r="AZ92" s="14" t="s">
         <v>2017</v>
-      </c>
-      <c r="AZ92" s="14" t="s">
-        <v>2018</v>
       </c>
       <c r="BA92" s="1" t="s">
         <v>612</v>
       </c>
       <c r="BB92" s="11" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.3">
@@ -22892,7 +22892,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H93" t="s">
         <v>1855</v>
@@ -22904,10 +22904,10 @@
         <v>48.4</v>
       </c>
       <c r="K93" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L93" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N93" t="s">
         <v>1903</v>
@@ -22916,16 +22916,16 @@
         <v>1881</v>
       </c>
       <c r="P93" t="s">
+        <v>2044</v>
+      </c>
+      <c r="Q93" t="s">
         <v>2045</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93">
+        <v>999</v>
+      </c>
+      <c r="S93" t="s">
         <v>2046</v>
-      </c>
-      <c r="R93">
-        <v>999</v>
-      </c>
-      <c r="S93" t="s">
-        <v>2047</v>
       </c>
       <c r="T93" t="s">
         <v>306</v>
@@ -22934,86 +22934,86 @@
         <v>999</v>
       </c>
       <c r="V93" t="s">
+        <v>2023</v>
+      </c>
+      <c r="W93" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X93" t="s">
         <v>2024</v>
       </c>
-      <c r="W93" t="s">
-        <v>1998</v>
-      </c>
-      <c r="X93" t="s">
-        <v>2025</v>
-      </c>
       <c r="Y93" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z93" t="s">
         <v>1910</v>
       </c>
       <c r="AA93" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AB93" t="s">
         <v>2026</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AC93" t="s">
         <v>2027</v>
       </c>
-      <c r="AC93" t="s">
+      <c r="AD93" t="s">
         <v>2028</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>2029</v>
       </c>
       <c r="AE93" t="s">
         <v>1914</v>
       </c>
       <c r="AF93" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AG93" s="14" t="s">
         <v>2030</v>
-      </c>
-      <c r="AG93" s="14" t="s">
-        <v>2031</v>
       </c>
       <c r="AH93" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI93" s="14" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AJ93" s="14" t="s">
         <v>2032</v>
       </c>
-      <c r="AJ93" s="14" t="s">
+      <c r="AK93" s="14" t="s">
         <v>2033</v>
       </c>
-      <c r="AK93" s="14" t="s">
+      <c r="AL93" s="14" t="s">
         <v>2034</v>
-      </c>
-      <c r="AL93" s="14" t="s">
-        <v>2035</v>
       </c>
       <c r="AM93" s="14" t="s">
         <v>486</v>
       </c>
       <c r="AN93" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AO93" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="AO93" s="14" t="s">
+      <c r="AP93" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AQ93" s="14" t="s">
         <v>2037</v>
-      </c>
-      <c r="AP93" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="AQ93" s="14" t="s">
-        <v>2038</v>
       </c>
       <c r="AR93" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS93" s="14" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AT93" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="AT93" s="14" t="s">
+      <c r="AU93" s="14" t="s">
         <v>2040</v>
-      </c>
-      <c r="AU93" s="14" t="s">
-        <v>2041</v>
       </c>
       <c r="AV93" s="14"/>
       <c r="AW93" s="14" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="AY93" s="14" t="s">
         <v>349</v>
@@ -23022,7 +23022,7 @@
         <v>1902</v>
       </c>
       <c r="BA93" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.3">
@@ -23045,7 +23045,7 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H94" t="s">
         <v>1855</v>
@@ -23057,10 +23057,10 @@
         <v>48.4</v>
       </c>
       <c r="K94" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="L94" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="N94" t="s">
         <v>1903</v>
@@ -23069,10 +23069,10 @@
         <v>1881</v>
       </c>
       <c r="P94" t="s">
+        <v>2063</v>
+      </c>
+      <c r="Q94" t="s">
         <v>2064</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>2065</v>
       </c>
       <c r="R94">
         <v>999</v>
@@ -23090,28 +23090,28 @@
         <v>1752</v>
       </c>
       <c r="W94" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X94" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="Y94" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z94" t="s">
         <v>1910</v>
       </c>
       <c r="AA94" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AB94" t="s">
         <v>2052</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>2053</v>
       </c>
       <c r="AC94" t="s">
         <v>478</v>
       </c>
       <c r="AD94" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AE94" t="s">
         <v>1914</v>
@@ -23120,22 +23120,22 @@
         <v>1915</v>
       </c>
       <c r="AG94" s="14" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="AH94" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI94" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AJ94" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AK94" s="14" t="s">
         <v>2055</v>
       </c>
-      <c r="AJ94" s="14" t="s">
-        <v>2033</v>
-      </c>
-      <c r="AK94" s="14" t="s">
+      <c r="AL94" s="14" t="s">
         <v>2056</v>
-      </c>
-      <c r="AL94" s="14" t="s">
-        <v>2057</v>
       </c>
       <c r="AM94" s="14" t="s">
         <v>462</v>
@@ -23147,32 +23147,32 @@
         <v>1923</v>
       </c>
       <c r="AP94" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ94" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR94" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS94" s="14" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="AT94" s="14" t="s">
         <v>678</v>
       </c>
       <c r="AU94" s="14" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="AV94" s="14"/>
       <c r="AW94" s="14" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AY94" s="14" t="s">
         <v>2061</v>
       </c>
-      <c r="AY94" s="14" t="s">
+      <c r="AZ94" s="14" t="s">
         <v>2062</v>
-      </c>
-      <c r="AZ94" s="14" t="s">
-        <v>2063</v>
       </c>
       <c r="BA94" s="1" t="s">
         <v>612</v>
@@ -23198,7 +23198,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H95" t="s">
         <v>1855</v>
@@ -23210,10 +23210,10 @@
         <v>48.4</v>
       </c>
       <c r="K95" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="L95" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="N95" t="s">
         <v>1903</v>
@@ -23222,10 +23222,10 @@
         <v>1881</v>
       </c>
       <c r="P95" t="s">
+        <v>2084</v>
+      </c>
+      <c r="Q95" t="s">
         <v>2085</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>2086</v>
       </c>
       <c r="R95">
         <v>999</v>
@@ -23243,10 +23243,10 @@
         <v>999</v>
       </c>
       <c r="W95" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X95" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="Y95" t="s">
         <v>1860</v>
@@ -23255,10 +23255,10 @@
         <v>1910</v>
       </c>
       <c r="AA95" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AB95" t="s">
         <v>2070</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>2071</v>
       </c>
       <c r="AC95" t="s">
         <v>180</v>
@@ -23267,37 +23267,37 @@
         <v>117</v>
       </c>
       <c r="AE95" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AF95" t="s">
         <v>2072</v>
       </c>
-      <c r="AF95" t="s">
+      <c r="AG95" s="14" t="s">
         <v>2073</v>
       </c>
-      <c r="AG95" s="14" t="s">
+      <c r="AH95" s="14" t="s">
         <v>2074</v>
       </c>
-      <c r="AH95" s="14" t="s">
+      <c r="AI95" s="14" t="s">
         <v>2075</v>
       </c>
-      <c r="AI95" s="14" t="s">
+      <c r="AJ95" s="14" t="s">
         <v>2076</v>
       </c>
-      <c r="AJ95" s="14" t="s">
+      <c r="AK95" s="14" t="s">
         <v>2077</v>
       </c>
-      <c r="AK95" s="14" t="s">
+      <c r="AL95">
+        <v>999</v>
+      </c>
+      <c r="AM95" s="14" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AN95" s="14" t="s">
         <v>2078</v>
       </c>
-      <c r="AL95">
-        <v>999</v>
-      </c>
-      <c r="AM95" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="AN95" s="14" t="s">
+      <c r="AO95" s="14" t="s">
         <v>2079</v>
-      </c>
-      <c r="AO95" s="14" t="s">
-        <v>2080</v>
       </c>
       <c r="AP95" s="14" t="s">
         <v>1874</v>
@@ -23312,20 +23312,20 @@
         <v>999</v>
       </c>
       <c r="AT95" s="14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AU95" s="14" t="s">
         <v>2081</v>
-      </c>
-      <c r="AU95" s="14" t="s">
-        <v>2082</v>
       </c>
       <c r="AV95" s="14"/>
       <c r="AW95" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AY95" s="14" t="s">
         <v>2083</v>
       </c>
-      <c r="AY95" s="14" t="s">
-        <v>2084</v>
-      </c>
       <c r="AZ95" s="14" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="BA95" s="1" t="s">
         <v>1495</v>
@@ -23360,7 +23360,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="H97" t="s">
         <v>1855</v>
@@ -23372,10 +23372,10 @@
         <v>48.4</v>
       </c>
       <c r="K97" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="L97" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="N97" t="s">
         <v>1903</v>
@@ -23384,10 +23384,10 @@
         <v>1881</v>
       </c>
       <c r="P97" t="s">
+        <v>2099</v>
+      </c>
+      <c r="Q97" t="s">
         <v>2100</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>2101</v>
       </c>
       <c r="R97">
         <v>999</v>
@@ -23405,22 +23405,22 @@
         <v>1752</v>
       </c>
       <c r="W97" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="X97" t="s">
         <v>736</v>
       </c>
       <c r="Y97" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="Z97" t="s">
         <v>421</v>
       </c>
       <c r="AA97" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="AB97" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AC97" t="s">
         <v>478</v>
@@ -23435,22 +23435,22 @@
         <v>1915</v>
       </c>
       <c r="AG97" s="14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AH97" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI97" s="14" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AJ97" s="14" t="s">
         <v>1919</v>
       </c>
       <c r="AK97" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL97" s="14" t="s">
         <v>2094</v>
-      </c>
-      <c r="AL97" s="14" t="s">
-        <v>2095</v>
       </c>
       <c r="AM97" s="14" t="s">
         <v>462</v>
@@ -23462,32 +23462,32 @@
         <v>1766</v>
       </c>
       <c r="AP97" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ97" s="14" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AR97" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS97" s="14" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AT97" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU97" s="14" t="s">
         <v>547</v>
       </c>
       <c r="AV97" s="14"/>
       <c r="AW97" s="14" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AY97" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AZ97" s="14" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="BA97" s="1" t="s">
         <v>612</v>
@@ -23513,7 +23513,7 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H98" t="s">
         <v>1855</v>
@@ -23525,28 +23525,28 @@
         <v>48.4</v>
       </c>
       <c r="K98" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L98" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="N98" t="s">
         <v>1903</v>
       </c>
       <c r="O98" t="s">
+        <v>2127</v>
+      </c>
+      <c r="P98" t="s">
         <v>2128</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>2129</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98">
+        <v>999</v>
+      </c>
+      <c r="S98" t="s">
         <v>2130</v>
-      </c>
-      <c r="R98">
-        <v>999</v>
-      </c>
-      <c r="S98" t="s">
-        <v>2131</v>
       </c>
       <c r="T98" t="s">
         <v>306</v>
@@ -23555,95 +23555,95 @@
         <v>999</v>
       </c>
       <c r="V98" t="s">
+        <v>2103</v>
+      </c>
+      <c r="W98" t="s">
         <v>2104</v>
       </c>
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>2105</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>2106</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>2107</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>2108</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
         <v>2109</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>2110</v>
       </c>
       <c r="AC98" t="s">
         <v>478</v>
       </c>
       <c r="AD98" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AE98" t="s">
         <v>2111</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AF98" t="s">
         <v>2112</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AG98" s="14" t="s">
         <v>2113</v>
-      </c>
-      <c r="AG98" s="14" t="s">
-        <v>2114</v>
       </c>
       <c r="AH98" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI98" s="14" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AJ98" s="14" t="s">
         <v>2115</v>
       </c>
-      <c r="AJ98" s="14" t="s">
+      <c r="AK98" s="14" t="s">
         <v>2116</v>
       </c>
-      <c r="AK98" s="14" t="s">
+      <c r="AL98" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="AL98" s="14" t="s">
+      <c r="AM98" s="14" t="s">
         <v>2118</v>
       </c>
-      <c r="AM98" s="14" t="s">
+      <c r="AN98" s="14" t="s">
         <v>2119</v>
       </c>
-      <c r="AN98" s="14" t="s">
+      <c r="AO98" s="14" t="s">
         <v>2120</v>
-      </c>
-      <c r="AO98" s="14" t="s">
-        <v>2121</v>
       </c>
       <c r="AP98" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="AQ98" s="14" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AR98" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS98" s="14" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AT98" s="14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AU98" s="14" t="s">
         <v>2123</v>
-      </c>
-      <c r="AT98" s="14" t="s">
-        <v>2014</v>
-      </c>
-      <c r="AU98" s="14" t="s">
-        <v>2124</v>
       </c>
       <c r="AV98" s="14"/>
       <c r="AW98" s="14" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AY98" s="14" t="s">
         <v>440</v>
       </c>
       <c r="AZ98" s="14" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BA98" s="1" t="s">
         <v>2126</v>
-      </c>
-      <c r="BA98" s="1" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.3">
@@ -23666,7 +23666,7 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="H99" t="s">
         <v>1855</v>
@@ -23678,10 +23678,10 @@
         <v>48.4</v>
       </c>
       <c r="K99" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L99" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="N99" t="s">
         <v>1903</v>
@@ -23690,10 +23690,10 @@
         <v>1881</v>
       </c>
       <c r="P99" t="s">
+        <v>2143</v>
+      </c>
+      <c r="Q99" t="s">
         <v>2144</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>2145</v>
       </c>
       <c r="R99">
         <v>999</v>
@@ -23705,7 +23705,7 @@
         <v>190</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="V99" t="s">
         <v>1752</v>
@@ -23717,16 +23717,16 @@
         <v>419</v>
       </c>
       <c r="Y99" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z99" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AA99" t="s">
         <v>2135</v>
       </c>
-      <c r="AA99" t="s">
-        <v>2136</v>
-      </c>
       <c r="AB99" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="AC99" t="s">
         <v>478</v>
@@ -23741,22 +23741,22 @@
         <v>1915</v>
       </c>
       <c r="AG99" s="14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AH99" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI99" s="14" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AJ99" s="14" t="s">
         <v>2137</v>
       </c>
-      <c r="AJ99" s="14" t="s">
+      <c r="AK99" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="AK99" s="14" t="s">
+      <c r="AL99" s="14" t="s">
         <v>2139</v>
-      </c>
-      <c r="AL99" s="14" t="s">
-        <v>2140</v>
       </c>
       <c r="AM99" s="14" t="s">
         <v>462</v>
@@ -23765,38 +23765,38 @@
         <v>1922</v>
       </c>
       <c r="AO99" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP99" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="AQ99" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR99" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS99" s="14" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AT99" s="14" t="s">
         <v>2141</v>
       </c>
-      <c r="AT99" s="14" t="s">
-        <v>2142</v>
-      </c>
       <c r="AU99" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV99" s="14"/>
       <c r="AW99" s="14" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="AY99" s="14" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AZ99" s="14" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="BA99" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.3">
@@ -23819,7 +23819,7 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="H100" t="s">
         <v>1855</v>
@@ -23831,10 +23831,10 @@
         <v>48.4</v>
       </c>
       <c r="K100" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="L100" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N100" t="s">
         <v>1903</v>
@@ -23843,10 +23843,10 @@
         <v>1881</v>
       </c>
       <c r="P100" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="Q100" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="R100">
         <v>999</v>
@@ -23858,7 +23858,7 @@
         <v>190</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="V100" t="s">
         <v>1752</v>
@@ -23867,10 +23867,10 @@
         <v>1453</v>
       </c>
       <c r="X100" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="Y100" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z100">
         <v>999</v>
@@ -23879,10 +23879,10 @@
         <v>1426</v>
       </c>
       <c r="AB100" t="s">
+        <v>2296</v>
+      </c>
+      <c r="AC100" t="s">
         <v>2297</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>2298</v>
       </c>
       <c r="AD100" t="s">
         <v>1913</v>
@@ -23894,22 +23894,22 @@
         <v>1915</v>
       </c>
       <c r="AG100" s="14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AH100" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI100" s="14" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AJ100" s="14" t="s">
         <v>2137</v>
       </c>
-      <c r="AJ100" s="14" t="s">
+      <c r="AK100" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="AK100" s="14" t="s">
+      <c r="AL100" s="14" t="s">
         <v>2139</v>
-      </c>
-      <c r="AL100" s="14" t="s">
-        <v>2140</v>
       </c>
       <c r="AM100" s="14" t="s">
         <v>462</v>
@@ -23918,38 +23918,38 @@
         <v>1922</v>
       </c>
       <c r="AO100" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP100" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="AQ100" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR100" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS100" s="14" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="AT100" s="14" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="AU100" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV100" s="14"/>
       <c r="AW100" s="14" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="AY100" s="14" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AZ100" s="14" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BA100" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.3">
@@ -23972,7 +23972,7 @@
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="H101" t="s">
         <v>1855</v>
@@ -23984,10 +23984,10 @@
         <v>48.4</v>
       </c>
       <c r="K101" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="L101" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="N101" t="s">
         <v>1903</v>
@@ -23996,16 +23996,16 @@
         <v>1881</v>
       </c>
       <c r="P101" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Q101" t="s">
         <v>2159</v>
       </c>
-      <c r="Q101" t="s">
-        <v>2160</v>
-      </c>
       <c r="R101">
         <v>999</v>
       </c>
       <c r="S101" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="T101" t="s">
         <v>89</v>
@@ -24020,7 +24020,7 @@
         <v>1858</v>
       </c>
       <c r="X101" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="Y101" t="s">
         <v>1860</v>
@@ -24029,16 +24029,16 @@
         <v>243</v>
       </c>
       <c r="AA101" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AB101" t="s">
         <v>2151</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>2152</v>
       </c>
       <c r="AC101" t="s">
         <v>478</v>
       </c>
       <c r="AD101" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AE101" t="s">
         <v>1894</v>
@@ -24047,7 +24047,7 @@
         <v>1866</v>
       </c>
       <c r="AG101" s="14" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AH101" s="14" t="s">
         <v>776</v>
@@ -24059,10 +24059,10 @@
         <v>627</v>
       </c>
       <c r="AK101" s="14" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AL101" s="14" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="AM101" s="14" t="s">
         <v>366</v>
@@ -24071,25 +24071,25 @@
         <v>1940</v>
       </c>
       <c r="AO101" s="14" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AP101" s="14" t="s">
         <v>1277</v>
       </c>
       <c r="AQ101" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR101" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS101" s="14" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AT101" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="AU101" s="14" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="AV101" s="14"/>
       <c r="AW101" s="14" t="s">
@@ -24099,7 +24099,7 @@
         <v>635</v>
       </c>
       <c r="AZ101" s="14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BA101" s="1" t="s">
         <v>1790</v>
@@ -24125,7 +24125,7 @@
         <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="H102" t="s">
         <v>1855</v>
@@ -24137,10 +24137,10 @@
         <v>48.4</v>
       </c>
       <c r="K102" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="L102" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="N102" t="s">
         <v>1903</v>
@@ -24149,16 +24149,16 @@
         <v>1881</v>
       </c>
       <c r="P102" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q102" t="s">
         <v>2173</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>2174</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>2175</v>
-      </c>
-      <c r="S102" t="s">
-        <v>2176</v>
       </c>
       <c r="T102" t="s">
         <v>89</v>
@@ -24170,7 +24170,7 @@
         <v>1752</v>
       </c>
       <c r="W102" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="X102" t="s">
         <v>419</v>
@@ -24182,16 +24182,16 @@
         <v>243</v>
       </c>
       <c r="AA102" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AB102" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="AC102" t="s">
         <v>602</v>
       </c>
       <c r="AD102" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE102" t="s">
         <v>1894</v>
@@ -24200,22 +24200,22 @@
         <v>1866</v>
       </c>
       <c r="AG102" s="14" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AH102" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI102" s="14" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AJ102" s="14" t="s">
         <v>627</v>
       </c>
       <c r="AK102" s="14" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AL102" s="14" t="s">
         <v>2169</v>
-      </c>
-      <c r="AL102" s="14" t="s">
-        <v>2170</v>
       </c>
       <c r="AM102" s="14" t="s">
         <v>366</v>
@@ -24230,13 +24230,13 @@
         <v>1874</v>
       </c>
       <c r="AQ102" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR102" s="14" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AS102" s="14" t="s">
         <v>2171</v>
-      </c>
-      <c r="AS102" s="14" t="s">
-        <v>2172</v>
       </c>
       <c r="AT102" s="14" t="s">
         <v>1899</v>
@@ -24252,7 +24252,7 @@
         <v>1494</v>
       </c>
       <c r="AZ102" s="14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BA102" s="1" t="s">
         <v>376</v>
@@ -24278,7 +24278,7 @@
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="H103" t="s">
         <v>1855</v>
@@ -24293,7 +24293,7 @@
         <v>1609</v>
       </c>
       <c r="L103" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N103" t="s">
         <v>1903</v>
@@ -24302,10 +24302,10 @@
         <v>1881</v>
       </c>
       <c r="P103" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q103" t="s">
         <v>2192</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>2193</v>
       </c>
       <c r="R103">
         <v>999</v>
@@ -24317,16 +24317,16 @@
         <v>190</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="V103" t="s">
         <v>686</v>
       </c>
       <c r="W103" t="s">
+        <v>2177</v>
+      </c>
+      <c r="X103" t="s">
         <v>2178</v>
-      </c>
-      <c r="X103" t="s">
-        <v>2179</v>
       </c>
       <c r="Y103" t="s">
         <v>1860</v>
@@ -24335,7 +24335,7 @@
         <v>243</v>
       </c>
       <c r="AA103" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AB103" t="s">
         <v>1863</v>
@@ -24344,31 +24344,31 @@
         <v>602</v>
       </c>
       <c r="AD103" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE103" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AF103" t="s">
         <v>2181</v>
       </c>
-      <c r="AF103" t="s">
+      <c r="AG103" s="14" t="s">
         <v>2182</v>
       </c>
-      <c r="AG103" s="14" t="s">
+      <c r="AH103" s="14" t="s">
         <v>2183</v>
       </c>
-      <c r="AH103" s="14" t="s">
+      <c r="AI103" s="14" t="s">
         <v>2184</v>
       </c>
-      <c r="AI103" s="14" t="s">
+      <c r="AJ103" s="14" t="s">
         <v>2185</v>
-      </c>
-      <c r="AJ103" s="14" t="s">
-        <v>2186</v>
       </c>
       <c r="AK103" s="14" t="s">
         <v>1869</v>
       </c>
       <c r="AL103" s="14" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="AM103" s="14" t="s">
         <v>366</v>
@@ -24389,23 +24389,23 @@
         <v>76</v>
       </c>
       <c r="AS103" s="14" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AT103" s="14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AU103" s="14" t="s">
         <v>2188</v>
-      </c>
-      <c r="AT103" s="14" t="s">
-        <v>2081</v>
-      </c>
-      <c r="AU103" s="14" t="s">
-        <v>2189</v>
       </c>
       <c r="AV103" s="14"/>
       <c r="AW103" s="14" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="AY103" s="14" t="s">
         <v>761</v>
       </c>
       <c r="AZ103" s="14" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BA103" s="1" t="s">
         <v>376</v>
@@ -24431,7 +24431,7 @@
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="H104" t="s">
         <v>1855</v>
@@ -24443,10 +24443,10 @@
         <v>48.4</v>
       </c>
       <c r="K104" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="L104" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N104" t="s">
         <v>1903</v>
@@ -24455,110 +24455,110 @@
         <v>1881</v>
       </c>
       <c r="P104" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q104" t="s">
         <v>2216</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104">
+        <v>999</v>
+      </c>
+      <c r="S104" t="s">
         <v>2217</v>
-      </c>
-      <c r="R104">
-        <v>999</v>
-      </c>
-      <c r="S104" t="s">
-        <v>2218</v>
       </c>
       <c r="T104" t="s">
         <v>1055</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="V104" t="s">
+        <v>2197</v>
+      </c>
+      <c r="W104" t="s">
         <v>2198</v>
-      </c>
-      <c r="W104" t="s">
-        <v>2199</v>
       </c>
       <c r="X104" t="s">
         <v>1909</v>
       </c>
       <c r="Y104" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z104" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AD104" t="s">
         <v>2214</v>
       </c>
-      <c r="AA104" t="s">
-        <v>2052</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>2091</v>
-      </c>
-      <c r="AC104" t="s">
+      <c r="AE104" t="s">
         <v>2200</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>2215</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>2201</v>
       </c>
       <c r="AF104" t="s">
         <v>1915</v>
       </c>
       <c r="AG104" s="14" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="AH104" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI104" s="14" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AJ104" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AK104" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL104" s="14" t="s">
         <v>2203</v>
       </c>
-      <c r="AJ104" s="14" t="s">
-        <v>2033</v>
-      </c>
-      <c r="AK104" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AL104" s="14" t="s">
+      <c r="AM104" s="14" t="s">
         <v>2204</v>
       </c>
-      <c r="AM104" s="14" t="s">
+      <c r="AN104" s="14" t="s">
         <v>2205</v>
       </c>
-      <c r="AN104" s="14" t="s">
+      <c r="AO104" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="AO104" s="14" t="s">
+      <c r="AP104" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="AP104" s="14" t="s">
+      <c r="AQ104" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AR104" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="AQ104" s="14" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AR104" s="14" t="s">
+      <c r="AS104" s="14" t="s">
         <v>2209</v>
       </c>
-      <c r="AS104" s="14" t="s">
-        <v>2210</v>
-      </c>
       <c r="AT104" s="14" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="AU104" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV104" s="14"/>
       <c r="AW104" s="14" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AX104" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="AX104" s="14" t="s">
+      <c r="AY104" s="14" t="s">
         <v>2212</v>
-      </c>
-      <c r="AY104" s="14" t="s">
-        <v>2213</v>
       </c>
       <c r="AZ104" s="14" t="s">
         <v>1902</v>
@@ -24587,7 +24587,7 @@
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="H105" t="s">
         <v>1855</v>
@@ -24599,10 +24599,10 @@
         <v>48.4</v>
       </c>
       <c r="K105" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="L105" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="N105" t="s">
         <v>1903</v>
@@ -24611,7 +24611,7 @@
         <v>1881</v>
       </c>
       <c r="P105" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="Q105" t="s">
         <v>1477</v>
@@ -24629,13 +24629,13 @@
         <v>999</v>
       </c>
       <c r="V105" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="W105" t="s">
         <v>1858</v>
       </c>
       <c r="X105" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="Y105" t="s">
         <v>1860</v>
@@ -24644,77 +24644,77 @@
         <v>1519</v>
       </c>
       <c r="AA105" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="AB105" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC105" t="s">
         <v>95</v>
       </c>
       <c r="AD105" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE105" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="AF105" t="s">
         <v>1866</v>
       </c>
       <c r="AG105" s="14" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="AH105" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI105" s="14" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AJ105" s="14" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="AK105" s="14" t="s">
         <v>1869</v>
       </c>
       <c r="AL105" s="14" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="AM105" s="14" t="s">
         <v>366</v>
       </c>
       <c r="AN105" s="14" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AO105" s="14" t="s">
         <v>2230</v>
       </c>
-      <c r="AO105" s="14" t="s">
+      <c r="AP105" s="14" t="s">
         <v>2231</v>
       </c>
-      <c r="AP105" s="14" t="s">
-        <v>2232</v>
-      </c>
       <c r="AQ105" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR105" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS105" s="14" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="AT105" s="14" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AU105" s="14" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AV105" s="14"/>
       <c r="AW105" s="14" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AY105" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="AY105" s="14" t="s">
-        <v>2235</v>
-      </c>
       <c r="AZ105" s="14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BA105" s="1" t="s">
         <v>783</v>
@@ -24740,7 +24740,7 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="H106" t="s">
         <v>1855</v>
@@ -24752,10 +24752,10 @@
         <v>48.4</v>
       </c>
       <c r="K106" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="L106" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="N106" t="s">
         <v>1903</v>
@@ -24764,7 +24764,7 @@
         <v>1881</v>
       </c>
       <c r="P106" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="Q106" t="s">
         <v>1477</v>
@@ -24779,7 +24779,7 @@
         <v>89</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="V106" t="s">
         <v>1857</v>
@@ -24794,46 +24794,46 @@
         <v>1860</v>
       </c>
       <c r="Z106" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AA106" t="s">
         <v>2240</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="AB106" t="s">
         <v>2241</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>2242</v>
       </c>
       <c r="AC106" t="s">
         <v>602</v>
       </c>
       <c r="AD106" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="AE106" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="AF106" t="s">
         <v>1866</v>
       </c>
       <c r="AG106" s="14" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AH106" s="14" t="s">
         <v>1271</v>
       </c>
       <c r="AI106" s="14" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AJ106" s="14" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AK106" s="14" t="s">
         <v>2245</v>
       </c>
-      <c r="AJ106" s="14" t="s">
-        <v>1961</v>
-      </c>
-      <c r="AK106" s="14" t="s">
+      <c r="AL106" s="14" t="s">
         <v>2246</v>
       </c>
-      <c r="AL106" s="14" t="s">
+      <c r="AM106" s="14" t="s">
         <v>2247</v>
-      </c>
-      <c r="AM106" s="14" t="s">
-        <v>2248</v>
       </c>
       <c r="AN106" s="14" t="s">
         <v>1940</v>
@@ -24842,16 +24842,16 @@
         <v>1873</v>
       </c>
       <c r="AP106" s="14" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AQ106" s="14" t="s">
         <v>1875</v>
       </c>
       <c r="AR106" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AS106" s="14" t="s">
         <v>2249</v>
-      </c>
-      <c r="AS106" s="14" t="s">
-        <v>2250</v>
       </c>
       <c r="AT106" s="14" t="s">
         <v>1899</v>
@@ -24861,16 +24861,16 @@
       </c>
       <c r="AV106" s="14"/>
       <c r="AW106" s="14" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AX106" s="14" t="s">
         <v>2251</v>
       </c>
-      <c r="AX106" s="14" t="s">
+      <c r="AY106" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="AY106" s="14" t="s">
-        <v>2253</v>
-      </c>
       <c r="AZ106" s="14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BA106" s="1" t="s">
         <v>376</v>
@@ -24896,7 +24896,7 @@
         <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H107" t="s">
         <v>1855</v>
@@ -24908,10 +24908,10 @@
         <v>48.4</v>
       </c>
       <c r="K107" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="L107" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="N107" t="s">
         <v>1903</v>
@@ -24920,13 +24920,13 @@
         <v>1881</v>
       </c>
       <c r="P107" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="Q107" t="s">
         <v>1287</v>
       </c>
       <c r="R107" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="S107" t="s">
         <v>233</v>
@@ -24938,31 +24938,31 @@
         <v>999</v>
       </c>
       <c r="V107" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="W107" t="s">
         <v>1212</v>
       </c>
       <c r="X107" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Y107" t="s">
         <v>2260</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>2261</v>
       </c>
       <c r="Z107" t="s">
         <v>243</v>
       </c>
       <c r="AA107" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="AB107" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AC107" t="s">
         <v>602</v>
       </c>
       <c r="AD107" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AE107" t="s">
         <v>1198</v>
@@ -24971,7 +24971,7 @@
         <v>624</v>
       </c>
       <c r="AG107" s="14" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="AH107" s="14" t="s">
         <v>776</v>
@@ -24980,34 +24980,34 @@
         <v>1684</v>
       </c>
       <c r="AJ107" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="AK107" s="14" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AL107" s="14" t="s">
         <v>2265</v>
-      </c>
-      <c r="AL107" s="14" t="s">
-        <v>2266</v>
       </c>
       <c r="AM107" s="14" t="s">
         <v>366</v>
       </c>
       <c r="AN107" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AO107" s="14" t="s">
         <v>2267</v>
-      </c>
-      <c r="AO107" s="14" t="s">
-        <v>2268</v>
       </c>
       <c r="AP107" s="14" t="s">
         <v>1874</v>
       </c>
       <c r="AQ107" s="14" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AR107" s="14" t="s">
         <v>2269</v>
       </c>
-      <c r="AR107" s="14" t="s">
+      <c r="AS107" s="14" t="s">
         <v>2270</v>
-      </c>
-      <c r="AS107" s="14" t="s">
-        <v>2271</v>
       </c>
       <c r="AT107" s="14" t="s">
         <v>275</v>
@@ -25017,16 +25017,16 @@
       </c>
       <c r="AV107" s="14"/>
       <c r="AW107" s="14" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AY107" s="14" t="s">
         <v>2272</v>
       </c>
-      <c r="AY107" s="14" t="s">
+      <c r="AZ107" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BA107" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="AZ107" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BA107" s="1" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.3">
@@ -25049,7 +25049,7 @@
         <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="H108" t="s">
         <v>1855</v>
@@ -25061,10 +25061,10 @@
         <v>48.4</v>
       </c>
       <c r="K108" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="L108" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N108" t="s">
         <v>1903</v>
@@ -25073,10 +25073,10 @@
         <v>1881</v>
       </c>
       <c r="P108" t="s">
+        <v>2290</v>
+      </c>
+      <c r="Q108" t="s">
         <v>2291</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>2292</v>
       </c>
       <c r="R108">
         <v>999</v>
@@ -25091,13 +25091,13 @@
         <v>999</v>
       </c>
       <c r="V108" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W108" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="X108" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="Y108" t="s">
         <v>1860</v>
@@ -25106,7 +25106,7 @@
         <v>243</v>
       </c>
       <c r="AA108" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AB108" t="s">
         <v>1893</v>
@@ -25115,7 +25115,7 @@
         <v>602</v>
       </c>
       <c r="AD108" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="AE108" t="s">
         <v>1894</v>
@@ -25124,13 +25124,13 @@
         <v>624</v>
       </c>
       <c r="AG108" s="14" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="AH108" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI108" s="14" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="AJ108" s="14" t="s">
         <v>1804</v>
@@ -25139,10 +25139,10 @@
         <v>1869</v>
       </c>
       <c r="AL108" s="14" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AM108" s="14" t="s">
         <v>2283</v>
-      </c>
-      <c r="AM108" s="14" t="s">
-        <v>2284</v>
       </c>
       <c r="AN108" s="14" t="s">
         <v>1940</v>
@@ -25154,29 +25154,29 @@
         <v>1874</v>
       </c>
       <c r="AQ108" s="14" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AR108" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS108" s="14" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AT108" s="14" t="s">
         <v>2286</v>
       </c>
-      <c r="AT108" s="14" t="s">
+      <c r="AU108" s="14" t="s">
         <v>2287</v>
-      </c>
-      <c r="AU108" s="14" t="s">
-        <v>2288</v>
       </c>
       <c r="AV108" s="14"/>
       <c r="AW108" s="14" t="s">
         <v>1901</v>
       </c>
       <c r="AY108" s="14" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AZ108" s="14" t="s">
         <v>2289</v>
-      </c>
-      <c r="AZ108" s="14" t="s">
-        <v>2290</v>
       </c>
       <c r="BA108" s="1" t="s">
         <v>376</v>
@@ -25202,7 +25202,7 @@
         <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="H109" t="s">
         <v>1855</v>
@@ -25214,28 +25214,28 @@
         <v>48.4</v>
       </c>
       <c r="K109" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="L109" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="N109" t="s">
         <v>1903</v>
       </c>
       <c r="O109" t="s">
+        <v>2314</v>
+      </c>
+      <c r="P109" t="s">
         <v>2315</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>2316</v>
       </c>
-      <c r="Q109" t="s">
-        <v>2317</v>
-      </c>
       <c r="R109">
         <v>999</v>
       </c>
       <c r="S109" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="T109" t="s">
         <v>306</v>
@@ -25247,28 +25247,28 @@
         <v>1752</v>
       </c>
       <c r="W109" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X109" t="s">
         <v>736</v>
       </c>
       <c r="Y109" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z109" t="s">
         <v>243</v>
       </c>
       <c r="AA109" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AB109" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AC109" t="s">
         <v>478</v>
       </c>
       <c r="AD109" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AE109" t="s">
         <v>1914</v>
@@ -25277,59 +25277,59 @@
         <v>1915</v>
       </c>
       <c r="AG109" s="14" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="AH109" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI109" s="14" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="AJ109" s="14" t="s">
+        <v>2306</v>
+      </c>
+      <c r="AK109" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL109" s="14" t="s">
         <v>2307</v>
       </c>
-      <c r="AK109" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AL109" s="14" t="s">
+      <c r="AM109" s="14" t="s">
         <v>2308</v>
-      </c>
-      <c r="AM109" s="14" t="s">
-        <v>2309</v>
       </c>
       <c r="AN109" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="AO109" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP109" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="AQ109" s="14" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AR109" s="14" t="s">
         <v>2310</v>
       </c>
-      <c r="AR109" s="14" t="s">
+      <c r="AS109" s="14" t="s">
         <v>2311</v>
       </c>
-      <c r="AS109" s="14" t="s">
-        <v>2312</v>
-      </c>
       <c r="AT109" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU109" s="14" t="s">
         <v>79</v>
       </c>
       <c r="AV109" s="14"/>
       <c r="AW109" s="14" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AY109" s="14" t="s">
+        <v>2312</v>
+      </c>
+      <c r="AZ109" s="14" t="s">
         <v>2313</v>
-      </c>
-      <c r="AZ109" s="14" t="s">
-        <v>2314</v>
       </c>
       <c r="BA109" s="1" t="s">
         <v>376</v>
@@ -25355,7 +25355,7 @@
         <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="H110" t="s">
         <v>1855</v>
@@ -25367,10 +25367,10 @@
         <v>48.4</v>
       </c>
       <c r="K110" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="L110" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="N110" t="s">
         <v>1903</v>
@@ -25379,10 +25379,10 @@
         <v>1881</v>
       </c>
       <c r="P110" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="Q110" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="R110">
         <v>999</v>
@@ -25400,28 +25400,28 @@
         <v>1857</v>
       </c>
       <c r="W110" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="X110" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="Y110" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z110" t="s">
         <v>1910</v>
       </c>
       <c r="AA110" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="AB110" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AC110" t="s">
         <v>478</v>
       </c>
       <c r="AD110" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AE110" t="s">
         <v>1914</v>
@@ -25430,22 +25430,22 @@
         <v>1915</v>
       </c>
       <c r="AG110" s="14" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AH110" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI110" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ110" s="14" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AK110" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL110" s="14" t="s">
         <v>2324</v>
-      </c>
-      <c r="AK110" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AL110" s="14" t="s">
-        <v>2325</v>
       </c>
       <c r="AM110" s="14" t="s">
         <v>462</v>
@@ -25454,35 +25454,35 @@
         <v>1922</v>
       </c>
       <c r="AO110" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP110" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="AQ110" s="14" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="AR110" s="14" t="s">
         <v>347</v>
       </c>
       <c r="AS110" s="14" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="AT110" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU110" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV110" s="14"/>
       <c r="AW110" s="14" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="AY110" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AZ110" s="14" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BA110" s="1" t="s">
         <v>612</v>
@@ -25508,7 +25508,7 @@
         <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="H111" t="s">
         <v>1855</v>
@@ -25520,19 +25520,19 @@
         <v>48.4</v>
       </c>
       <c r="K111" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="L111" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="N111" t="s">
+        <v>2359</v>
+      </c>
+      <c r="O111">
+        <v>999</v>
+      </c>
+      <c r="P111" t="s">
         <v>2360</v>
-      </c>
-      <c r="O111">
-        <v>999</v>
-      </c>
-      <c r="P111" t="s">
-        <v>2361</v>
       </c>
       <c r="Q111" t="s">
         <v>933</v>
@@ -25547,104 +25547,104 @@
         <v>89</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="V111" t="s">
+        <v>2336</v>
+      </c>
+      <c r="W111" t="s">
+        <v>2333</v>
+      </c>
+      <c r="X111" t="s">
+        <v>2334</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Z111" t="s">
         <v>2337</v>
       </c>
-      <c r="W111" t="s">
-        <v>2334</v>
-      </c>
-      <c r="X111" t="s">
-        <v>2335</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>2336</v>
-      </c>
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>2338</v>
       </c>
-      <c r="AA111" t="s">
+      <c r="AB111" t="s">
         <v>2339</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AC111" t="s">
         <v>2340</v>
       </c>
-      <c r="AC111" t="s">
+      <c r="AD111" t="s">
         <v>2341</v>
-      </c>
-      <c r="AD111" t="s">
-        <v>2342</v>
       </c>
       <c r="AE111" t="s">
         <v>1894</v>
       </c>
       <c r="AF111" t="s">
+        <v>2342</v>
+      </c>
+      <c r="AG111" s="14" t="s">
         <v>2343</v>
       </c>
-      <c r="AG111" s="14" t="s">
+      <c r="AH111" s="14" t="s">
         <v>2344</v>
       </c>
-      <c r="AH111" s="14" t="s">
+      <c r="AI111" s="14" t="s">
         <v>2345</v>
       </c>
-      <c r="AI111" s="14" t="s">
+      <c r="AJ111" s="14" t="s">
         <v>2346</v>
       </c>
-      <c r="AJ111" s="14" t="s">
+      <c r="AK111" s="14" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AL111">
+        <v>999</v>
+      </c>
+      <c r="AM111" s="14" t="s">
         <v>2347</v>
       </c>
-      <c r="AK111" s="14" t="s">
-        <v>2265</v>
-      </c>
-      <c r="AL111">
-        <v>999</v>
-      </c>
-      <c r="AM111" s="14" t="s">
+      <c r="AN111" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="AN111" s="14" t="s">
+      <c r="AO111" s="14" t="s">
         <v>2349</v>
       </c>
-      <c r="AO111" s="14" t="s">
+      <c r="AP111" s="14" t="s">
         <v>2350</v>
-      </c>
-      <c r="AP111" s="14" t="s">
-        <v>2351</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>1333</v>
       </c>
       <c r="AR111" s="14" t="s">
+        <v>2351</v>
+      </c>
+      <c r="AS111" s="14" t="s">
         <v>2352</v>
-      </c>
-      <c r="AS111" s="14" t="s">
-        <v>2353</v>
       </c>
       <c r="AT111" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AV111" s="14"/>
       <c r="AW111" s="14" t="s">
         <v>1512</v>
       </c>
       <c r="AX111" s="14" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AY111" s="14" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AZ111" s="14" t="s">
         <v>2355</v>
       </c>
-      <c r="AY111" s="14" t="s">
+      <c r="BA111" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="BB111" s="11" t="s">
         <v>2358</v>
-      </c>
-      <c r="AZ111" s="14" t="s">
-        <v>2356</v>
-      </c>
-      <c r="BA111" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="BB111" s="11" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.3">
@@ -25667,7 +25667,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="H112" t="s">
         <v>1855</v>
@@ -25679,22 +25679,22 @@
         <v>48.4</v>
       </c>
       <c r="K112" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="L112" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="N112" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O112" t="s">
         <v>1881</v>
       </c>
       <c r="P112" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q112" t="s">
         <v>2373</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>2374</v>
       </c>
       <c r="R112">
         <v>999</v>
@@ -25715,7 +25715,7 @@
         <v>1858</v>
       </c>
       <c r="X112" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="Y112" t="s">
         <v>1860</v>
@@ -25724,16 +25724,16 @@
         <v>243</v>
       </c>
       <c r="AA112" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AB112" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="AC112" t="s">
         <v>602</v>
       </c>
       <c r="AD112" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE112" t="s">
         <v>1894</v>
@@ -25742,13 +25742,13 @@
         <v>1866</v>
       </c>
       <c r="AG112" s="14" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="AH112" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI112" s="14" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AJ112" s="14" t="s">
         <v>1804</v>
@@ -25757,7 +25757,7 @@
         <v>1869</v>
       </c>
       <c r="AL112" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="AM112" s="14" t="s">
         <v>366</v>
@@ -25772,13 +25772,13 @@
         <v>1874</v>
       </c>
       <c r="AQ112" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR112" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS112" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AT112" s="14" t="s">
         <v>1899</v>
@@ -25788,13 +25788,13 @@
       </c>
       <c r="AV112" s="14"/>
       <c r="AW112" s="14" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AX112" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="AX112" s="14" t="s">
+      <c r="AY112" s="14" t="s">
         <v>2371</v>
-      </c>
-      <c r="AY112" s="14" t="s">
-        <v>2372</v>
       </c>
       <c r="AZ112" s="14" t="s">
         <v>1282</v>
@@ -25823,7 +25823,7 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="H113" t="s">
         <v>1855</v>
@@ -25835,28 +25835,28 @@
         <v>48.4</v>
       </c>
       <c r="K113" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="L113" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="N113" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O113">
         <v>999</v>
       </c>
       <c r="P113" t="s">
+        <v>2388</v>
+      </c>
+      <c r="Q113" t="s">
         <v>2389</v>
       </c>
-      <c r="Q113" t="s">
-        <v>2390</v>
-      </c>
       <c r="R113">
         <v>999</v>
       </c>
       <c r="S113" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="T113" t="s">
         <v>89</v>
@@ -25871,7 +25871,7 @@
         <v>1858</v>
       </c>
       <c r="X113" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="Y113" t="s">
         <v>1860</v>
@@ -25880,7 +25880,7 @@
         <v>243</v>
       </c>
       <c r="AA113" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AB113" t="s">
         <v>1893</v>
@@ -25889,31 +25889,31 @@
         <v>602</v>
       </c>
       <c r="AD113" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE113" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AF113" t="s">
         <v>2379</v>
       </c>
-      <c r="AF113" t="s">
+      <c r="AG113" s="14" t="s">
         <v>2380</v>
-      </c>
-      <c r="AG113" s="14" t="s">
-        <v>2381</v>
       </c>
       <c r="AH113" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI113" s="14" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AJ113" s="14" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="AK113" s="14" t="s">
         <v>1869</v>
       </c>
       <c r="AL113" s="14" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AM113" s="14" t="s">
         <v>1871</v>
@@ -25925,35 +25925,35 @@
         <v>1873</v>
       </c>
       <c r="AP113" s="14" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AQ113" s="14" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="AR113" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS113" s="14" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="AT113" s="14" t="s">
         <v>1129</v>
       </c>
       <c r="AU113" s="14" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AV113" s="14"/>
       <c r="AW113" s="14" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AX113" s="14" t="s">
         <v>2386</v>
       </c>
-      <c r="AX113" s="14" t="s">
+      <c r="AY113" s="14" t="s">
         <v>2387</v>
       </c>
-      <c r="AY113" s="14" t="s">
-        <v>2388</v>
-      </c>
       <c r="AZ113" s="14" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BA113" s="1" t="s">
         <v>376</v>
@@ -25979,7 +25979,7 @@
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="H114" t="s">
         <v>1855</v>
@@ -25991,19 +25991,19 @@
         <v>48.4</v>
       </c>
       <c r="K114" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="L114" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="N114" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O114">
         <v>999</v>
       </c>
       <c r="P114" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="Q114">
         <v>999</v>
@@ -26024,19 +26024,19 @@
         <v>1857</v>
       </c>
       <c r="W114" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="X114" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="Y114" t="s">
         <v>1860</v>
       </c>
       <c r="Z114" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AA114" t="s">
         <v>2395</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>2396</v>
       </c>
       <c r="AB114" t="s">
         <v>1863</v>
@@ -26045,31 +26045,31 @@
         <v>602</v>
       </c>
       <c r="AD114" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AE114" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="AF114" t="s">
         <v>1866</v>
       </c>
       <c r="AG114" s="14" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="AH114" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI114" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AJ114" t="s">
         <v>2397</v>
       </c>
-      <c r="AJ114" t="s">
-        <v>2398</v>
-      </c>
       <c r="AK114" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AL114" s="14" t="s">
         <v>2400</v>
-      </c>
-      <c r="AL114" s="14" t="s">
-        <v>2401</v>
       </c>
       <c r="AM114" s="14" t="s">
         <v>1897</v>
@@ -26078,35 +26078,35 @@
         <v>1940</v>
       </c>
       <c r="AO114" s="14" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="AP114" s="14" t="s">
         <v>1874</v>
       </c>
       <c r="AQ114" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR114" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS114" s="14" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AT114" s="14" t="s">
         <v>1129</v>
       </c>
       <c r="AU114" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AV114" s="14"/>
       <c r="AW114" s="14" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AY114" s="14" t="s">
         <v>2404</v>
       </c>
-      <c r="AY114" s="14" t="s">
+      <c r="AZ114" s="14" t="s">
         <v>2405</v>
-      </c>
-      <c r="AZ114" s="14" t="s">
-        <v>2406</v>
       </c>
       <c r="BA114" s="1" t="s">
         <v>1790</v>
@@ -26132,7 +26132,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="H115" t="s">
         <v>1855</v>
@@ -26144,25 +26144,25 @@
         <v>48.4</v>
       </c>
       <c r="K115" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="L115" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="N115" t="s">
+        <v>2422</v>
+      </c>
+      <c r="O115">
+        <v>999</v>
+      </c>
+      <c r="P115" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Q115" t="s">
         <v>2423</v>
       </c>
-      <c r="O115">
-        <v>999</v>
-      </c>
-      <c r="P115" t="s">
-        <v>2425</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>2424</v>
-      </c>
       <c r="R115" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="S115">
         <v>999</v>
@@ -26171,28 +26171,28 @@
         <v>306</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="V115" t="s">
         <v>330</v>
       </c>
       <c r="W115" t="s">
+        <v>2408</v>
+      </c>
+      <c r="X115" t="s">
         <v>2409</v>
       </c>
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>2410</v>
       </c>
-      <c r="Y115" t="s">
+      <c r="Z115">
+        <v>999</v>
+      </c>
+      <c r="AA115" t="s">
         <v>2411</v>
       </c>
-      <c r="Z115">
-        <v>999</v>
-      </c>
-      <c r="AA115" t="s">
+      <c r="AB115" t="s">
         <v>2412</v>
-      </c>
-      <c r="AB115" t="s">
-        <v>2413</v>
       </c>
       <c r="AC115" t="s">
         <v>288</v>
@@ -26201,19 +26201,19 @@
         <v>1913</v>
       </c>
       <c r="AE115" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AF115" t="s">
         <v>2414</v>
       </c>
-      <c r="AF115" t="s">
+      <c r="AG115" s="14" t="s">
         <v>2415</v>
-      </c>
-      <c r="AG115" s="14" t="s">
-        <v>2416</v>
       </c>
       <c r="AH115" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI115" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ115" s="14" t="s">
         <v>1804</v>
@@ -26222,10 +26222,10 @@
         <v>1869</v>
       </c>
       <c r="AL115" s="14" t="s">
+        <v>2416</v>
+      </c>
+      <c r="AM115" s="14" t="s">
         <v>2417</v>
-      </c>
-      <c r="AM115" s="14" t="s">
-        <v>2418</v>
       </c>
       <c r="AN115" s="14" t="s">
         <v>1940</v>
@@ -26237,29 +26237,29 @@
         <v>1924</v>
       </c>
       <c r="AQ115" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR115" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS115" s="14" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AT115" s="14" t="s">
         <v>255</v>
       </c>
       <c r="AU115" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AV115" s="14"/>
       <c r="AW115" s="14" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AY115" s="14" t="s">
         <v>2421</v>
       </c>
-      <c r="AY115" s="14" t="s">
-        <v>2422</v>
-      </c>
       <c r="AZ115" s="14" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="BA115" s="1" t="s">
         <v>612</v>
@@ -26285,7 +26285,7 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="H116" t="s">
         <v>1855</v>
@@ -26297,22 +26297,22 @@
         <v>48.4</v>
       </c>
       <c r="K116" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="L116" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="N116" t="s">
+        <v>2496</v>
+      </c>
+      <c r="O116">
+        <v>999</v>
+      </c>
+      <c r="P116" t="s">
         <v>2497</v>
       </c>
-      <c r="O116">
-        <v>999</v>
-      </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>2498</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>2499</v>
       </c>
       <c r="R116">
         <v>999</v>
@@ -26324,7 +26324,7 @@
         <v>306</v>
       </c>
       <c r="U116" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="V116" t="s">
         <v>686</v>
@@ -26333,7 +26333,7 @@
         <v>1858</v>
       </c>
       <c r="X116" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="Y116" t="s">
         <v>1860</v>
@@ -26342,16 +26342,16 @@
         <v>243</v>
       </c>
       <c r="AA116" t="s">
+        <v>2487</v>
+      </c>
+      <c r="AB116" t="s">
         <v>2488</v>
-      </c>
-      <c r="AB116" t="s">
-        <v>2489</v>
       </c>
       <c r="AC116" t="s">
         <v>602</v>
       </c>
       <c r="AD116" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE116" t="s">
         <v>1070</v>
@@ -26360,25 +26360,25 @@
         <v>1866</v>
       </c>
       <c r="AG116" s="14" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AH116" s="14" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AI116" s="14" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AJ116" s="14" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AK116" s="14" t="s">
         <v>2490</v>
       </c>
-      <c r="AH116" s="14" t="s">
-        <v>2184</v>
-      </c>
-      <c r="AI116" s="14" t="s">
-        <v>1960</v>
-      </c>
-      <c r="AJ116" s="14" t="s">
-        <v>1961</v>
-      </c>
-      <c r="AK116" s="14" t="s">
+      <c r="AL116" s="14" t="s">
         <v>2491</v>
       </c>
-      <c r="AL116" s="14" t="s">
+      <c r="AM116" s="14" t="s">
         <v>2492</v>
-      </c>
-      <c r="AM116" s="14" t="s">
-        <v>2493</v>
       </c>
       <c r="AN116" s="14" t="s">
         <v>1940</v>
@@ -26387,7 +26387,7 @@
         <v>1873</v>
       </c>
       <c r="AP116" s="14" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AQ116" s="14" t="s">
         <v>370</v>
@@ -26396,17 +26396,17 @@
         <v>76</v>
       </c>
       <c r="AS116" s="14" t="s">
+        <v>2493</v>
+      </c>
+      <c r="AT116" s="14" t="s">
         <v>2494</v>
-      </c>
-      <c r="AT116" s="14" t="s">
-        <v>2495</v>
       </c>
       <c r="AU116" s="14" t="s">
         <v>1900</v>
       </c>
       <c r="AV116" s="14"/>
       <c r="AW116" s="14" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="AY116" s="14" t="s">
         <v>1361</v>
@@ -26438,7 +26438,7 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="H117" t="s">
         <v>1855</v>
@@ -26450,28 +26450,28 @@
         <v>48.4</v>
       </c>
       <c r="K117" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="L117" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N117" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O117" t="s">
+        <v>2514</v>
+      </c>
+      <c r="P117" t="s">
         <v>2515</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>2516</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>2517</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>2518</v>
-      </c>
-      <c r="S117" t="s">
-        <v>2519</v>
       </c>
       <c r="T117" t="s">
         <v>306</v>
@@ -26483,55 +26483,55 @@
         <v>686</v>
       </c>
       <c r="W117" t="s">
+        <v>2502</v>
+      </c>
+      <c r="X117" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y117" t="s">
         <v>2503</v>
       </c>
-      <c r="X117" t="s">
-        <v>2394</v>
-      </c>
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>2504</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>2505</v>
       </c>
       <c r="AA117" t="s">
         <v>1933</v>
       </c>
       <c r="AB117" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="AC117" t="s">
         <v>602</v>
       </c>
       <c r="AD117" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AE117" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="AF117" t="s">
         <v>1866</v>
       </c>
       <c r="AG117" s="14" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AH117" s="14" t="s">
         <v>2508</v>
       </c>
-      <c r="AH117" s="14" t="s">
+      <c r="AI117" s="14" t="s">
         <v>2509</v>
       </c>
-      <c r="AI117" s="14" t="s">
-        <v>2510</v>
-      </c>
       <c r="AJ117" s="14" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AK117" s="14" t="s">
         <v>947</v>
       </c>
       <c r="AL117" s="14" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="AM117" s="14" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AN117" s="14" t="s">
         <v>1940</v>
@@ -26540,7 +26540,7 @@
         <v>1873</v>
       </c>
       <c r="AP117" s="14" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="AQ117" s="14" t="s">
         <v>370</v>
@@ -26549,7 +26549,7 @@
         <v>76</v>
       </c>
       <c r="AS117" s="14" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="AT117" s="14" t="s">
         <v>1899</v>
@@ -26559,13 +26559,13 @@
       </c>
       <c r="AV117" s="14"/>
       <c r="AW117" s="14" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="AY117" s="14" t="s">
+        <v>2512</v>
+      </c>
+      <c r="AZ117" s="14" t="s">
         <v>2513</v>
-      </c>
-      <c r="AZ117" s="14" t="s">
-        <v>2514</v>
       </c>
       <c r="BA117" s="1" t="s">
         <v>159</v>
@@ -26591,7 +26591,7 @@
         <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="H118" t="s">
         <v>1855</v>
@@ -26603,22 +26603,22 @@
         <v>48.4</v>
       </c>
       <c r="K118" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="L118" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="N118" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O118" t="s">
         <v>1881</v>
       </c>
       <c r="P118" t="s">
+        <v>2531</v>
+      </c>
+      <c r="Q118" t="s">
         <v>2532</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>2533</v>
       </c>
       <c r="R118">
         <v>999</v>
@@ -26636,64 +26636,64 @@
         <v>1752</v>
       </c>
       <c r="W118" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X118" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="Y118" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z118" t="s">
         <v>1910</v>
       </c>
       <c r="AA118" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AB118" t="s">
         <v>2524</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>2525</v>
       </c>
       <c r="AC118" t="s">
         <v>478</v>
       </c>
       <c r="AD118" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AE118" t="s">
         <v>1894</v>
       </c>
       <c r="AF118" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AG118" s="14" t="s">
         <v>2527</v>
       </c>
-      <c r="AG118" s="14" t="s">
+      <c r="AH118" s="14" t="s">
         <v>2528</v>
       </c>
-      <c r="AH118" s="14" t="s">
+      <c r="AI118" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AJ118" s="14" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AK118" s="14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AL118" s="14" t="s">
         <v>2529</v>
       </c>
-      <c r="AI118" s="14" t="s">
-        <v>2055</v>
-      </c>
-      <c r="AJ118" s="14" t="s">
-        <v>2007</v>
-      </c>
-      <c r="AK118" s="14" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AL118" s="14" t="s">
-        <v>2530</v>
-      </c>
       <c r="AM118" s="14" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="AN118" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="AO118" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP118" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ118" s="14" t="s">
         <v>1875</v>
@@ -26702,23 +26702,23 @@
         <v>76</v>
       </c>
       <c r="AS118" s="14" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="AT118" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU118" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV118" s="14"/>
       <c r="AX118" s="14" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="AY118" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AZ118" s="14" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BA118" s="1" t="s">
         <v>612</v>
@@ -26744,7 +26744,7 @@
         <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="H119" t="s">
         <v>1855</v>
@@ -26756,19 +26756,19 @@
         <v>48.4</v>
       </c>
       <c r="K119" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="L119" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="N119" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O119" t="s">
         <v>1881</v>
       </c>
       <c r="P119" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="Q119" t="s">
         <v>794</v>
@@ -26783,98 +26783,98 @@
         <v>190</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="V119" t="s">
         <v>1752</v>
       </c>
       <c r="W119" t="s">
+        <v>2536</v>
+      </c>
+      <c r="X119" t="s">
         <v>2537</v>
       </c>
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Z119" t="s">
         <v>2538</v>
       </c>
-      <c r="Y119" t="s">
-        <v>2001</v>
-      </c>
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>2539</v>
       </c>
-      <c r="AA119" t="s">
+      <c r="AB119" t="s">
         <v>2540</v>
-      </c>
-      <c r="AB119" t="s">
-        <v>2541</v>
       </c>
       <c r="AC119" t="s">
         <v>478</v>
       </c>
       <c r="AD119" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AE119" t="s">
         <v>2542</v>
       </c>
-      <c r="AE119" t="s">
+      <c r="AF119" t="s">
+        <v>2414</v>
+      </c>
+      <c r="AG119" s="14" t="s">
         <v>2543</v>
-      </c>
-      <c r="AF119" t="s">
-        <v>2415</v>
-      </c>
-      <c r="AG119" s="14" t="s">
-        <v>2544</v>
       </c>
       <c r="AH119" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI119" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ119" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="AK119" s="14" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="AL119" s="14" t="s">
+        <v>2544</v>
+      </c>
+      <c r="AM119" s="14" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AN119" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AO119" s="14" t="s">
         <v>2545</v>
       </c>
-      <c r="AM119" s="14" t="s">
-        <v>2119</v>
-      </c>
-      <c r="AN119" s="14" t="s">
-        <v>2036</v>
-      </c>
-      <c r="AO119" s="14" t="s">
-        <v>2546</v>
-      </c>
       <c r="AP119" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>1875</v>
       </c>
       <c r="AR119" s="14" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AS119" s="14" t="s">
         <v>2547</v>
       </c>
-      <c r="AS119" s="14" t="s">
+      <c r="AT119" s="14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AU119" s="14" t="s">
         <v>2548</v>
-      </c>
-      <c r="AT119" s="14" t="s">
-        <v>2014</v>
-      </c>
-      <c r="AU119" s="14" t="s">
-        <v>2549</v>
       </c>
       <c r="AV119" s="14"/>
       <c r="AW119" s="14" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AY119" s="14" t="s">
+        <v>2549</v>
+      </c>
+      <c r="AZ119" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BA119" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="AZ119" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BA119" s="1" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="120" spans="1:53" x14ac:dyDescent="0.3">
@@ -26897,7 +26897,7 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="H120" t="s">
         <v>1855</v>
@@ -26909,28 +26909,28 @@
         <v>48.4</v>
       </c>
       <c r="K120" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="L120" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="N120" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O120" t="s">
         <v>1881</v>
       </c>
       <c r="P120" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="Q120" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="R120">
         <v>999</v>
       </c>
       <c r="S120" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="T120" t="s">
         <v>306</v>
@@ -26942,28 +26942,28 @@
         <v>1752</v>
       </c>
       <c r="W120" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X120" t="s">
         <v>736</v>
       </c>
       <c r="Y120" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z120" t="s">
         <v>1910</v>
       </c>
       <c r="AA120" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AB120" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="AC120" t="s">
         <v>478</v>
       </c>
       <c r="AD120" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="AE120" t="s">
         <v>1914</v>
@@ -26972,34 +26972,34 @@
         <v>1915</v>
       </c>
       <c r="AG120" s="14" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="AH120" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI120" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AJ120" s="14" t="s">
         <v>2006</v>
       </c>
-      <c r="AJ120" s="14" t="s">
-        <v>2007</v>
-      </c>
       <c r="AK120" s="14" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AL120" s="14" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="AM120" s="14" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="AN120" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="AO120" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP120" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ120" s="14" t="s">
         <v>1875</v>
@@ -27008,26 +27008,26 @@
         <v>347</v>
       </c>
       <c r="AS120" s="14" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="AT120" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="AU120" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV120" s="14"/>
       <c r="AW120" s="14" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="AX120" s="14" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="AY120" s="14" t="s">
         <v>635</v>
       </c>
       <c r="AZ120" s="14" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BA120" s="1" t="s">
         <v>376</v>
@@ -27053,7 +27053,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="H121" t="s">
         <v>1855</v>
@@ -27065,22 +27065,22 @@
         <v>48.4</v>
       </c>
       <c r="K121" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="L121" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="N121" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="O121" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="P121" t="s">
+        <v>2576</v>
+      </c>
+      <c r="Q121" t="s">
         <v>2577</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>2578</v>
       </c>
       <c r="R121">
         <v>999</v>
@@ -27092,25 +27092,25 @@
         <v>53</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="V121" t="s">
+        <v>2556</v>
+      </c>
+      <c r="W121" t="s">
         <v>2557</v>
       </c>
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>2558</v>
       </c>
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>2559</v>
       </c>
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>2560</v>
       </c>
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>2561</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>2562</v>
       </c>
       <c r="AB121" t="s">
         <v>1893</v>
@@ -27119,71 +27119,71 @@
         <v>149</v>
       </c>
       <c r="AD121" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AE121" t="s">
         <v>2563</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>2564</v>
       </c>
       <c r="AF121" t="s">
         <v>624</v>
       </c>
       <c r="AG121" s="14" t="s">
+        <v>2564</v>
+      </c>
+      <c r="AH121">
+        <v>999</v>
+      </c>
+      <c r="AI121" s="14" t="s">
         <v>2565</v>
       </c>
-      <c r="AH121">
-        <v>999</v>
-      </c>
-      <c r="AI121" s="14" t="s">
+      <c r="AJ121" s="14" t="s">
         <v>2566</v>
       </c>
-      <c r="AJ121" s="14" t="s">
+      <c r="AK121" s="14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AL121" s="14" t="s">
         <v>2567</v>
       </c>
-      <c r="AK121" s="14" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AL121" s="14" t="s">
+      <c r="AM121" s="14" t="s">
         <v>2568</v>
       </c>
-      <c r="AM121" s="14" t="s">
+      <c r="AN121" s="14" t="s">
         <v>2569</v>
       </c>
-      <c r="AN121" s="14" t="s">
-        <v>2570</v>
-      </c>
       <c r="AO121" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AP121" s="14" t="s">
         <v>1963</v>
-      </c>
-      <c r="AP121" s="14" t="s">
-        <v>1964</v>
       </c>
       <c r="AQ121" s="14" t="s">
         <v>1875</v>
       </c>
       <c r="AR121" s="14" t="s">
+        <v>2570</v>
+      </c>
+      <c r="AS121" s="14" t="s">
         <v>2571</v>
       </c>
-      <c r="AS121" s="14" t="s">
+      <c r="AT121" s="14" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AU121" s="14" t="s">
         <v>2572</v>
-      </c>
-      <c r="AT121" s="14" t="s">
-        <v>2614</v>
-      </c>
-      <c r="AU121" s="14" t="s">
-        <v>2573</v>
       </c>
       <c r="AV121" s="14"/>
       <c r="AW121" s="14" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AY121" s="14" t="s">
         <v>2574</v>
       </c>
-      <c r="AY121" s="14" t="s">
+      <c r="AZ121" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BA121" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="AZ121" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BA121" s="1" t="s">
-        <v>2576</v>
       </c>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.3">
@@ -27206,7 +27206,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="H122" t="s">
         <v>1855</v>
@@ -27218,25 +27218,25 @@
         <v>48.4</v>
       </c>
       <c r="K122" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="L122" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="N122" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O122" t="s">
+        <v>2620</v>
+      </c>
+      <c r="P122" t="s">
         <v>2621</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>2622</v>
       </c>
-      <c r="Q122" t="s">
-        <v>2623</v>
-      </c>
       <c r="R122" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="S122">
         <v>999</v>
@@ -27248,98 +27248,98 @@
         <v>999</v>
       </c>
       <c r="V122" t="s">
+        <v>2591</v>
+      </c>
+      <c r="W122" t="s">
+        <v>2595</v>
+      </c>
+      <c r="X122" t="s">
         <v>2592</v>
       </c>
-      <c r="W122" t="s">
+      <c r="Y122" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AA122" t="s">
         <v>2596</v>
       </c>
-      <c r="X122" t="s">
-        <v>2593</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>2595</v>
-      </c>
-      <c r="AA122" t="s">
+      <c r="AB122" t="s">
         <v>2597</v>
       </c>
-      <c r="AB122" t="s">
+      <c r="AC122" t="s">
         <v>2598</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="AD122" t="s">
         <v>2599</v>
       </c>
-      <c r="AD122" t="s">
+      <c r="AE122" t="s">
         <v>2600</v>
       </c>
-      <c r="AE122" t="s">
+      <c r="AF122" t="s">
+        <v>2602</v>
+      </c>
+      <c r="AG122" s="14" t="s">
         <v>2601</v>
       </c>
-      <c r="AF122" t="s">
+      <c r="AH122" s="14" t="s">
         <v>2603</v>
       </c>
-      <c r="AG122" s="14" t="s">
-        <v>2602</v>
-      </c>
-      <c r="AH122" s="14" t="s">
+      <c r="AI122" s="14" t="s">
         <v>2604</v>
       </c>
-      <c r="AI122" s="14" t="s">
+      <c r="AJ122" s="14" t="s">
         <v>2605</v>
       </c>
-      <c r="AJ122" s="14" t="s">
+      <c r="AK122" s="14" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AL122" s="14" t="s">
         <v>2606</v>
       </c>
-      <c r="AK122" s="14" t="s">
-        <v>2117</v>
-      </c>
-      <c r="AL122" s="14" t="s">
+      <c r="AM122" s="14" t="s">
         <v>2607</v>
       </c>
-      <c r="AM122" s="14" t="s">
+      <c r="AN122" s="14" t="s">
         <v>2608</v>
       </c>
-      <c r="AN122" s="14" t="s">
+      <c r="AO122" s="14" t="s">
         <v>2609</v>
       </c>
-      <c r="AO122" s="14" t="s">
+      <c r="AP122" s="14" t="s">
         <v>2610</v>
       </c>
-      <c r="AP122" s="14" t="s">
+      <c r="AQ122" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AR122" s="14" t="s">
         <v>2611</v>
       </c>
-      <c r="AQ122" s="14" t="s">
-        <v>1965</v>
-      </c>
-      <c r="AR122" s="14" t="s">
+      <c r="AS122" s="14" t="s">
+        <v>2614</v>
+      </c>
+      <c r="AT122" s="14" t="s">
         <v>2612</v>
       </c>
-      <c r="AS122" s="14" t="s">
+      <c r="AU122" s="14" t="s">
         <v>2615</v>
-      </c>
-      <c r="AT122" s="14" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AU122" s="14" t="s">
-        <v>2616</v>
       </c>
       <c r="AV122" s="14"/>
       <c r="AW122" s="14" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AX122" s="14" t="s">
         <v>2617</v>
       </c>
-      <c r="AX122" s="14" t="s">
+      <c r="AY122" s="14" t="s">
         <v>2618</v>
       </c>
-      <c r="AY122" s="14" t="s">
+      <c r="AZ122" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BA122" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="AZ122" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BA122" s="1" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="123" spans="1:53" x14ac:dyDescent="0.3">
@@ -27362,7 +27362,7 @@
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="H123" t="s">
         <v>1855</v>
@@ -27377,94 +27377,94 @@
         <v>1656</v>
       </c>
       <c r="L123" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="N123" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O123" t="s">
+        <v>2650</v>
+      </c>
+      <c r="P123" t="s">
         <v>2651</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>2652</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>2653</v>
       </c>
       <c r="R123" t="s">
         <v>1903</v>
       </c>
       <c r="S123" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="T123" t="s">
         <v>306</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="V123" t="s">
+        <v>2626</v>
+      </c>
+      <c r="W123" t="s">
         <v>2627</v>
       </c>
-      <c r="W123" t="s">
+      <c r="X123" t="s">
         <v>2628</v>
       </c>
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>2629</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>2630</v>
       </c>
       <c r="Z123" t="s">
         <v>895</v>
       </c>
       <c r="AA123" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AB123" t="s">
         <v>2631</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>2632</v>
       </c>
       <c r="AC123" t="s">
         <v>1934</v>
       </c>
       <c r="AD123" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AE123" t="s">
         <v>2633</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AF123" t="s">
         <v>2634</v>
       </c>
-      <c r="AF123" t="s">
+      <c r="AG123" s="14" t="s">
         <v>2635</v>
       </c>
-      <c r="AG123" s="14" t="s">
+      <c r="AH123" s="14" t="s">
         <v>2636</v>
       </c>
-      <c r="AH123" s="14" t="s">
+      <c r="AI123" s="14" t="s">
         <v>2637</v>
       </c>
-      <c r="AI123" s="14" t="s">
+      <c r="AJ123" s="14" t="s">
         <v>2638</v>
       </c>
-      <c r="AJ123" s="14" t="s">
+      <c r="AK123" s="14" t="s">
         <v>2639</v>
       </c>
-      <c r="AK123" s="14" t="s">
+      <c r="AL123" s="14" t="s">
         <v>2640</v>
       </c>
-      <c r="AL123" s="14" t="s">
+      <c r="AM123" s="14" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AN123" s="14" t="s">
         <v>2641</v>
       </c>
-      <c r="AM123" s="14" t="s">
-        <v>2248</v>
-      </c>
-      <c r="AN123" s="14" t="s">
+      <c r="AO123" s="14" t="s">
         <v>2642</v>
       </c>
-      <c r="AO123" s="14" t="s">
+      <c r="AP123" s="14" t="s">
         <v>2643</v>
-      </c>
-      <c r="AP123" s="14" t="s">
-        <v>2644</v>
       </c>
       <c r="AQ123" s="14" t="s">
         <v>1875</v>
@@ -27473,26 +27473,26 @@
         <v>520</v>
       </c>
       <c r="AS123" s="14" t="s">
+        <v>2644</v>
+      </c>
+      <c r="AT123" s="14" t="s">
         <v>2645</v>
       </c>
-      <c r="AT123" s="14" t="s">
+      <c r="AU123" s="14" t="s">
         <v>2646</v>
-      </c>
-      <c r="AU123" s="14" t="s">
-        <v>2647</v>
       </c>
       <c r="AV123" s="14"/>
       <c r="AW123" s="14" t="s">
+        <v>2647</v>
+      </c>
+      <c r="AY123" s="14" t="s">
         <v>2648</v>
       </c>
-      <c r="AY123" s="14" t="s">
+      <c r="AZ123" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BA123" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="AZ123" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BA123" s="1" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="124" spans="1:53" x14ac:dyDescent="0.3">
@@ -27515,7 +27515,7 @@
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="H124" t="s">
         <v>1855</v>
@@ -27530,19 +27530,19 @@
         <v>1656</v>
       </c>
       <c r="L124" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="N124" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O124" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="P124" t="s">
+        <v>2665</v>
+      </c>
+      <c r="Q124" t="s">
         <v>2666</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>2667</v>
       </c>
       <c r="R124">
         <v>999</v>
@@ -27557,67 +27557,67 @@
         <v>999</v>
       </c>
       <c r="V124" t="s">
+        <v>2654</v>
+      </c>
+      <c r="W124" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X124" t="s">
         <v>2655</v>
       </c>
-      <c r="W124" t="s">
-        <v>1998</v>
-      </c>
-      <c r="X124" t="s">
-        <v>2656</v>
-      </c>
       <c r="Y124" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z124" t="s">
         <v>1910</v>
       </c>
       <c r="AA124" t="s">
+        <v>2656</v>
+      </c>
+      <c r="AB124" t="s">
         <v>2657</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>2658</v>
       </c>
       <c r="AC124" t="s">
         <v>478</v>
       </c>
       <c r="AD124" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AE124" t="s">
+        <v>2658</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AG124" s="14" t="s">
         <v>2659</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>2527</v>
-      </c>
-      <c r="AG124" s="14" t="s">
-        <v>2660</v>
       </c>
       <c r="AH124" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI124" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AJ124" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AL124" s="14" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AM124" s="14" t="s">
         <v>2661</v>
       </c>
-      <c r="AM124" s="14" t="s">
-        <v>2662</v>
-      </c>
       <c r="AN124" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AO124" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="AO124" s="14" t="s">
-        <v>2037</v>
-      </c>
       <c r="AP124" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ124" s="14" t="s">
         <v>1875</v>
@@ -27626,26 +27626,26 @@
         <v>347</v>
       </c>
       <c r="AS124" s="14" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="AT124" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU124" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV124" s="14"/>
       <c r="AW124" s="14" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AY124" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AZ124" s="14" t="s">
+        <v>2663</v>
+      </c>
+      <c r="BA124" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="BA124" s="1" t="s">
-        <v>2665</v>
       </c>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.3">
@@ -27668,7 +27668,7 @@
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="H125" t="s">
         <v>1855</v>
@@ -27683,19 +27683,19 @@
         <v>1635</v>
       </c>
       <c r="L125" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="N125" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O125" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="P125" t="s">
+        <v>2675</v>
+      </c>
+      <c r="Q125" t="s">
         <v>2676</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>2677</v>
       </c>
       <c r="R125">
         <v>999</v>
@@ -27713,10 +27713,10 @@
         <v>1857</v>
       </c>
       <c r="W125" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="X125" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="Y125" t="s">
         <v>1860</v>
@@ -27743,25 +27743,25 @@
         <v>624</v>
       </c>
       <c r="AG125" s="14" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AH125" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI125" s="14" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AJ125" s="14" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AK125" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AL125" s="14" t="s">
         <v>2672</v>
       </c>
-      <c r="AJ125" s="14" t="s">
-        <v>2567</v>
-      </c>
-      <c r="AK125" s="14" t="s">
-        <v>2400</v>
-      </c>
-      <c r="AL125" s="14" t="s">
-        <v>2673</v>
-      </c>
       <c r="AM125" s="14" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AN125" s="14" t="s">
         <v>1872</v>
@@ -27779,23 +27779,23 @@
         <v>76</v>
       </c>
       <c r="AS125" s="14" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="AT125" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="AU125" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AV125" s="14"/>
       <c r="AW125" s="14" t="s">
         <v>1879</v>
       </c>
       <c r="AY125" s="14" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="AZ125" s="14" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BA125" s="1" t="s">
         <v>1790</v>
@@ -27821,7 +27821,7 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="H126" t="s">
         <v>1855</v>
@@ -27833,25 +27833,25 @@
         <v>48.4</v>
       </c>
       <c r="K126" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="L126" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="N126" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O126" t="s">
         <v>1881</v>
       </c>
       <c r="P126" t="s">
+        <v>2692</v>
+      </c>
+      <c r="Q126" t="s">
         <v>2693</v>
       </c>
-      <c r="Q126" t="s">
-        <v>2694</v>
-      </c>
       <c r="R126" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="S126">
         <v>999</v>
@@ -27866,28 +27866,28 @@
         <v>1752</v>
       </c>
       <c r="W126" t="s">
+        <v>2679</v>
+      </c>
+      <c r="X126" t="s">
         <v>2680</v>
       </c>
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>2681</v>
       </c>
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>2682</v>
       </c>
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AB126" t="s">
         <v>2683</v>
       </c>
-      <c r="AA126" t="s">
-        <v>2026</v>
-      </c>
-      <c r="AB126" t="s">
+      <c r="AC126" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AD126" t="s">
         <v>2684</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>2200</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>2685</v>
       </c>
       <c r="AE126" t="s">
         <v>1914</v>
@@ -27896,22 +27896,22 @@
         <v>624</v>
       </c>
       <c r="AG126" s="14" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AH126" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AI126" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AJ126" s="14" t="s">
         <v>2006</v>
       </c>
-      <c r="AJ126" s="14" t="s">
-        <v>2007</v>
-      </c>
       <c r="AK126" s="14" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="AL126" s="14" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AM126" s="14" t="s">
         <v>462</v>
@@ -27920,38 +27920,38 @@
         <v>1922</v>
       </c>
       <c r="AO126" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AP126" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AQ126" s="14" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="AR126" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS126" s="14" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="AT126" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AU126" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AV126" s="14"/>
       <c r="AW126" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="AX126" s="14" t="s">
+        <v>2689</v>
+      </c>
+      <c r="AY126" s="14" t="s">
         <v>2690</v>
       </c>
-      <c r="AY126" s="14" t="s">
+      <c r="AZ126" s="14" t="s">
         <v>2691</v>
-      </c>
-      <c r="AZ126" s="14" t="s">
-        <v>2692</v>
       </c>
       <c r="BA126" s="1" t="s">
         <v>1445</v>
@@ -27977,7 +27977,7 @@
         <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="H127" t="s">
         <v>1855</v>
@@ -27989,22 +27989,22 @@
         <v>48.4</v>
       </c>
       <c r="K127" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="L127" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="N127" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="O127">
         <v>999</v>
       </c>
       <c r="P127" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="Q127" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="R127">
         <v>999</v>
@@ -28016,16 +28016,16 @@
         <v>190</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="V127" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W127" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="X127" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="Y127" t="s">
         <v>1860</v>
@@ -28034,16 +28034,16 @@
         <v>139</v>
       </c>
       <c r="AA127" t="s">
+        <v>2698</v>
+      </c>
+      <c r="AB127" t="s">
         <v>2699</v>
       </c>
-      <c r="AB127" t="s">
+      <c r="AC127" t="s">
         <v>2700</v>
       </c>
-      <c r="AC127" t="s">
+      <c r="AD127" t="s">
         <v>2701</v>
-      </c>
-      <c r="AD127" t="s">
-        <v>2702</v>
       </c>
       <c r="AE127" t="s">
         <v>360</v>
@@ -28052,31 +28052,31 @@
         <v>922</v>
       </c>
       <c r="AG127" s="14" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AH127" s="14" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AI127" s="14" t="s">
         <v>2703</v>
       </c>
-      <c r="AI127" s="14" t="s">
+      <c r="AJ127" s="14" t="s">
         <v>2704</v>
-      </c>
-      <c r="AJ127" s="14" t="s">
-        <v>2705</v>
       </c>
       <c r="AK127" s="14" t="s">
         <v>1869</v>
       </c>
       <c r="AL127" s="14" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AM127" s="14" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AN127" s="14" t="s">
         <v>2706</v>
       </c>
-      <c r="AM127" s="14" t="s">
-        <v>2248</v>
-      </c>
-      <c r="AN127" s="14" t="s">
+      <c r="AO127" s="14" t="s">
         <v>2707</v>
-      </c>
-      <c r="AO127" s="14" t="s">
-        <v>2708</v>
       </c>
       <c r="AP127" s="14" t="s">
         <v>1874</v>
@@ -28085,29 +28085,29 @@
         <v>370</v>
       </c>
       <c r="AR127" s="14" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AS127" s="14" t="s">
         <v>302</v>
       </c>
       <c r="AT127" s="14" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="AU127" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AV127" s="14"/>
       <c r="AW127" s="14" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AY127" s="14" t="s">
         <v>2710</v>
       </c>
-      <c r="AY127" s="14" t="s">
+      <c r="AZ127" s="14" t="s">
         <v>2711</v>
       </c>
-      <c r="AZ127" s="14" t="s">
+      <c r="BA127" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="BA127" s="1" t="s">
-        <v>2713</v>
       </c>
     </row>
     <row r="128" spans="1:53" x14ac:dyDescent="0.3">
@@ -28130,7 +28130,7 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H128" t="s">
         <v>1855</v>
@@ -28145,16 +28145,16 @@
         <v>1734</v>
       </c>
       <c r="L128" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="N128" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O128" t="s">
         <v>1881</v>
       </c>
       <c r="P128" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="Q128" t="s">
         <v>933</v>
@@ -28172,13 +28172,13 @@
         <v>999</v>
       </c>
       <c r="V128" t="s">
+        <v>2717</v>
+      </c>
+      <c r="W128" t="s">
         <v>2718</v>
       </c>
-      <c r="W128" t="s">
-        <v>2719</v>
-      </c>
       <c r="X128" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="Y128" t="s">
         <v>1860</v>
@@ -28187,43 +28187,43 @@
         <v>243</v>
       </c>
       <c r="AA128" t="s">
+        <v>2719</v>
+      </c>
+      <c r="AB128" t="s">
         <v>2720</v>
       </c>
-      <c r="AB128" t="s">
+      <c r="AC128" t="s">
         <v>2721</v>
       </c>
-      <c r="AC128" t="s">
+      <c r="AD128" t="s">
         <v>2722</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>2723</v>
       </c>
       <c r="AE128" t="s">
         <v>1894</v>
       </c>
       <c r="AF128" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG128" s="14" t="s">
         <v>2724</v>
-      </c>
-      <c r="AG128" s="14" t="s">
-        <v>2725</v>
       </c>
       <c r="AH128" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI128" s="14" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ128" s="14" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AK128" s="14" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AL128" s="14" t="s">
         <v>2726</v>
       </c>
-      <c r="AJ128" s="14" t="s">
-        <v>2567</v>
-      </c>
-      <c r="AK128" s="14" t="s">
-        <v>2265</v>
-      </c>
-      <c r="AL128" s="14" t="s">
-        <v>2727</v>
-      </c>
       <c r="AM128" s="14" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="AN128" s="14" t="s">
         <v>1940</v>
@@ -28232,38 +28232,38 @@
         <v>1898</v>
       </c>
       <c r="AP128" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AQ128" s="14" t="s">
         <v>1964</v>
-      </c>
-      <c r="AQ128" s="14" t="s">
-        <v>1965</v>
       </c>
       <c r="AR128" s="14" t="s">
         <v>253</v>
       </c>
       <c r="AS128" s="14" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AT128" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="AU128" s="14" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AV128" s="14"/>
       <c r="AW128" s="14" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="AX128" s="14" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AY128" s="14" t="s">
         <v>2730</v>
       </c>
-      <c r="AY128" s="14" t="s">
-        <v>2731</v>
-      </c>
       <c r="AZ128" s="14" t="s">
+        <v>2711</v>
+      </c>
+      <c r="BA128" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="BA128" s="1" t="s">
-        <v>2713</v>
       </c>
     </row>
     <row r="129" spans="1:53" x14ac:dyDescent="0.3">
@@ -28286,7 +28286,7 @@
         <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="H129" t="s">
         <v>1855</v>
@@ -28301,19 +28301,19 @@
         <v>1719</v>
       </c>
       <c r="L129" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="N129" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O129" t="s">
         <v>1881</v>
       </c>
       <c r="P129" t="s">
+        <v>2742</v>
+      </c>
+      <c r="Q129" t="s">
         <v>2743</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>2744</v>
       </c>
       <c r="R129">
         <v>999</v>
@@ -28325,7 +28325,7 @@
         <v>1055</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="V129" t="s">
         <v>686</v>
@@ -28334,7 +28334,7 @@
         <v>1858</v>
       </c>
       <c r="X129" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="Y129" t="s">
         <v>1860</v>
@@ -28352,7 +28352,7 @@
         <v>817</v>
       </c>
       <c r="AD129" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AE129" t="s">
         <v>798</v>
@@ -28361,25 +28361,25 @@
         <v>1866</v>
       </c>
       <c r="AG129" s="14" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AH129" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI129" s="14" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AJ129" s="14" t="s">
         <v>627</v>
       </c>
       <c r="AK129" s="14" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AL129" s="14" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AM129" s="14" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AN129" s="14" t="s">
         <v>1940</v>
@@ -28388,32 +28388,32 @@
         <v>1873</v>
       </c>
       <c r="AP129" s="14" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="AQ129" s="14" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AR129" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AS129" s="14" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="AT129" s="14" t="s">
+        <v>2738</v>
+      </c>
+      <c r="AU129" s="14" t="s">
         <v>2739</v>
-      </c>
-      <c r="AU129" s="14" t="s">
-        <v>2740</v>
       </c>
       <c r="AV129" s="14"/>
       <c r="AW129" s="14" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="AY129" s="14" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AZ129" s="14" t="s">
         <v>2741</v>
-      </c>
-      <c r="AZ129" s="14" t="s">
-        <v>2742</v>
       </c>
       <c r="BA129" s="1" t="s">
         <v>783</v>
@@ -28439,7 +28439,7 @@
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="H130" t="s">
         <v>1855</v>
@@ -28451,19 +28451,19 @@
         <v>48.4</v>
       </c>
       <c r="K130" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="L130" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="N130" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O130">
         <v>999</v>
       </c>
       <c r="P130" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="Q130" t="s">
         <v>1191</v>
@@ -28484,22 +28484,22 @@
         <v>999</v>
       </c>
       <c r="W130" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="X130" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="Y130" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Z130">
         <v>999</v>
       </c>
       <c r="AA130" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AB130" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AC130" t="s">
         <v>288</v>
@@ -28511,34 +28511,34 @@
         <v>1914</v>
       </c>
       <c r="AF130" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="AG130" s="14" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AH130" s="14" t="s">
         <v>776</v>
       </c>
       <c r="AI130" s="14" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AJ130" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AK130" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL130" s="14" t="s">
         <v>2751</v>
       </c>
-      <c r="AJ130" s="14" t="s">
-        <v>2033</v>
-      </c>
-      <c r="AK130" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AL130" s="14" t="s">
+      <c r="AM130" s="14" t="s">
         <v>2752</v>
-      </c>
-      <c r="AM130" s="14" t="s">
-        <v>2753</v>
       </c>
       <c r="AN130" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="AO130" s="14" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AP130" s="14" t="s">
         <v>1924</v>
@@ -28550,7 +28550,7 @@
         <v>347</v>
       </c>
       <c r="AS130" s="14" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AT130" s="14" t="s">
         <v>78</v>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="AV130" s="14"/>
       <c r="AW130" s="14" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AX130" s="14" t="s">
         <v>1813</v>
@@ -28569,10 +28569,10 @@
         <v>635</v>
       </c>
       <c r="AZ130" s="14" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="BA130" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="131" spans="1:53" x14ac:dyDescent="0.3">
@@ -28595,7 +28595,7 @@
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="H131" t="s">
         <v>1855</v>
@@ -28607,67 +28607,67 @@
         <v>48.4</v>
       </c>
       <c r="K131" t="s">
+        <v>2760</v>
+      </c>
+      <c r="L131" t="s">
+        <v>2759</v>
+      </c>
+      <c r="V131" t="s">
         <v>2761</v>
       </c>
-      <c r="L131" t="s">
-        <v>2760</v>
-      </c>
-      <c r="V131" t="s">
+      <c r="W131" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X131" t="s">
         <v>2762</v>
       </c>
-      <c r="W131" t="s">
-        <v>1998</v>
-      </c>
-      <c r="X131" t="s">
+      <c r="Y131" t="s">
         <v>2763</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>2764</v>
       </c>
       <c r="Z131" t="s">
         <v>1910</v>
       </c>
       <c r="AA131" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AB131" t="s">
         <v>2765</v>
-      </c>
-      <c r="AB131" t="s">
-        <v>2766</v>
       </c>
       <c r="AC131" t="s">
         <v>288</v>
       </c>
       <c r="AD131" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="AE131" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AF131" t="s">
         <v>2767</v>
       </c>
-      <c r="AF131" t="s">
+      <c r="AG131" s="14" t="s">
         <v>2768</v>
       </c>
-      <c r="AG131" s="14" t="s">
+      <c r="AH131" s="14" t="s">
         <v>2769</v>
       </c>
-      <c r="AH131" s="14" t="s">
+      <c r="AI131" s="14" t="s">
         <v>2770</v>
       </c>
-      <c r="AI131" s="14" t="s">
+      <c r="AJ131" s="14" t="s">
         <v>2771</v>
       </c>
-      <c r="AJ131" s="14" t="s">
+      <c r="AK131" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AL131" s="14" t="s">
         <v>2772</v>
       </c>
-      <c r="AK131" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AL131" s="14" t="s">
+      <c r="AM131" s="14" t="s">
         <v>2773</v>
       </c>
-      <c r="AM131" s="14" t="s">
+      <c r="AN131" s="14" t="s">
         <v>2774</v>
-      </c>
-      <c r="AN131" s="14" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="132" spans="1:53" x14ac:dyDescent="0.3">
